--- a/experiment/results/experiment_1/results_zscored.xlsx
+++ b/experiment/results/experiment_1/results_zscored.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="640" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="1220" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="147">
   <si>
     <t>Answer.catchPassed</t>
   </si>
@@ -414,9 +414,6 @@
     <t>STD DEV</t>
   </si>
   <si>
-    <t>Nat - Gram</t>
-  </si>
-  <si>
     <t>METRICS</t>
   </si>
   <si>
@@ -429,9 +426,6 @@
     <t>Cosine similarity of Nat &amp; Gram: .9666</t>
   </si>
   <si>
-    <t>Correlation w/ Nat: .2892</t>
-  </si>
-  <si>
     <t>RAW DEP</t>
   </si>
   <si>
@@ -439,9 +433,6 @@
   </si>
   <si>
     <t>LOG RAW</t>
-  </si>
-  <si>
-    <t>Correlation w/ Nat: .5921</t>
   </si>
   <si>
     <t>PMI GW</t>
@@ -453,37 +444,25 @@
     <t>Thresholded at 10</t>
   </si>
   <si>
-    <t>Correlation w/ Nat: .4753</t>
-  </si>
-  <si>
     <t>Relative Frequency</t>
-  </si>
-  <si>
-    <t>Correlation w/ Nat: .2568</t>
   </si>
   <si>
     <t>L2 Normalization</t>
   </si>
   <si>
-    <t>Correlation w/ Nat: .2726</t>
-  </si>
-  <si>
     <t>OOE</t>
-  </si>
-  <si>
-    <t>Correlation w/ Nat: .2387</t>
-  </si>
-  <si>
-    <t>Correlation w/ Nat: .6633</t>
-  </si>
-  <si>
-    <t>Correlation w/ Nat: .6616</t>
   </si>
   <si>
     <t>PMI Smoothed</t>
   </si>
   <si>
-    <t>Correlation w/ Nat: .5629</t>
+    <t>Combined</t>
+  </si>
+  <si>
+    <t>Corr</t>
+  </si>
+  <si>
+    <t>PMI Normalized</t>
   </si>
 </sst>
 </file>
@@ -547,8 +526,40 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="143">
+  <cellStyleXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -700,7 +711,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="143">
+  <cellStyles count="175">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -772,6 +783,22 @@
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -843,6 +870,22 @@
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1172,10 +1215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CY124"/>
+  <dimension ref="A1:CY137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:CW34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2099,407 +2142,307 @@
     </row>
     <row r="5" spans="1:103">
       <c r="A5" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5">
-        <f>B3-B4</f>
-        <v>-5.2459517800000029E-2</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:BN5" si="0">C3-C4</f>
-        <v>0.10649842751999988</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>-0.17962079944000006</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>-0.32293074811999978</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>-0.18698452663999987</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>-4.4261087199999993E-2</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="0"/>
-        <v>-0.20912840047999981</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
-        <v>-0.30607844264000006</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>-0.31994896551999985</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="0"/>
-        <v>-3.332941471999995E-2</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="0"/>
-        <v>0.48084943447999995</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="0"/>
-        <v>9.4614615479999997E-2</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="0"/>
-        <v>0.20246902499999994</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
-        <v>0.35757882944000019</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="0"/>
-        <v>-0.30284214111999952</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>-0.10151229332000003</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="0"/>
-        <v>-2.0250597200000109E-2</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
-        <v>0.15538052540000002</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="0"/>
-        <v>2.5077983159999928E-2</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="0"/>
-        <v>5.5543520279999981E-2</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="0"/>
-        <v>0.16801211963999996</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="0"/>
-        <v>0.48930615688000012</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="0"/>
-        <v>-0.15632486668000001</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="0"/>
-        <v>-0.21826993804000003</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="0"/>
-        <v>-9.0411905800000025E-2</v>
-      </c>
-      <c r="AA5">
-        <f t="shared" si="0"/>
-        <v>8.9698990359999731E-2</v>
-      </c>
-      <c r="AB5">
-        <f t="shared" si="0"/>
-        <v>-0.16518371920000002</v>
-      </c>
-      <c r="AC5">
-        <f t="shared" si="0"/>
-        <v>-3.3127502439999956E-2</v>
-      </c>
-      <c r="AD5">
-        <f t="shared" si="0"/>
-        <v>-0.35708161543999994</v>
-      </c>
-      <c r="AE5">
-        <f t="shared" si="0"/>
-        <v>0.29338843899999989</v>
-      </c>
-      <c r="AF5">
-        <f t="shared" si="0"/>
-        <v>-0.25905997376000001</v>
-      </c>
-      <c r="AG5">
-        <f t="shared" si="0"/>
-        <v>7.5642215359999987E-2</v>
-      </c>
-      <c r="AH5">
-        <f t="shared" si="0"/>
-        <v>1.5706839879999879E-2</v>
-      </c>
-      <c r="AI5">
-        <f t="shared" si="0"/>
-        <v>-0.17947624427999995</v>
-      </c>
-      <c r="AJ5">
-        <f t="shared" si="0"/>
-        <v>0.19273299328000015</v>
-      </c>
-      <c r="AK5">
-        <f t="shared" si="0"/>
-        <v>0.15842165744000006</v>
-      </c>
-      <c r="AL5">
-        <f t="shared" si="0"/>
-        <v>-9.6217006600000099E-2</v>
-      </c>
-      <c r="AM5">
-        <f t="shared" si="0"/>
-        <v>6.8544754959999787E-2</v>
-      </c>
-      <c r="AN5">
-        <f t="shared" si="0"/>
-        <v>0.17289334987999999</v>
-      </c>
-      <c r="AO5">
-        <f t="shared" si="0"/>
-        <v>0.10180590351999996</v>
-      </c>
-      <c r="AP5">
-        <f t="shared" si="0"/>
-        <v>-0.28532835144000002</v>
-      </c>
-      <c r="AQ5">
-        <f t="shared" si="0"/>
-        <v>0.35315438504000007</v>
-      </c>
-      <c r="AR5">
-        <f t="shared" si="0"/>
-        <v>0.28449145819999988</v>
-      </c>
-      <c r="AS5">
-        <f t="shared" si="0"/>
-        <v>-0.1563257348</v>
-      </c>
-      <c r="AT5">
-        <f t="shared" si="0"/>
-        <v>-0.10019899468000015</v>
-      </c>
-      <c r="AU5">
-        <f t="shared" si="0"/>
-        <v>-0.40138561684000007</v>
-      </c>
-      <c r="AV5">
-        <f t="shared" si="0"/>
-        <v>0.40632818224000006</v>
-      </c>
-      <c r="AW5">
-        <f t="shared" si="0"/>
-        <v>0.15305817747999984</v>
-      </c>
-      <c r="AX5">
-        <f t="shared" si="0"/>
-        <v>6.1451129120000392E-2</v>
-      </c>
-      <c r="AY5">
-        <f t="shared" si="0"/>
-        <v>-0.5947897082000001</v>
-      </c>
-      <c r="AZ5">
-        <f t="shared" si="0"/>
-        <v>-0.12336275403999997</v>
-      </c>
-      <c r="BA5">
-        <f t="shared" si="0"/>
-        <v>0.34775482352000031</v>
-      </c>
-      <c r="BB5">
-        <f t="shared" si="0"/>
-        <v>-5.8907788000001071E-3</v>
-      </c>
-      <c r="BC5">
-        <f t="shared" si="0"/>
-        <v>-5.11756800002372E-5</v>
-      </c>
-      <c r="BD5">
-        <f t="shared" si="0"/>
-        <v>-0.26297863623999995</v>
-      </c>
-      <c r="BE5">
-        <f t="shared" si="0"/>
-        <v>5.35238786400003E-2</v>
-      </c>
-      <c r="BF5">
-        <f t="shared" si="0"/>
-        <v>5.8016419479999803E-2</v>
-      </c>
-      <c r="BG5">
-        <f t="shared" si="0"/>
-        <v>0.13664038668</v>
-      </c>
-      <c r="BH5">
-        <f t="shared" si="0"/>
-        <v>-3.1802863600000064E-3</v>
-      </c>
-      <c r="BI5">
-        <f t="shared" si="0"/>
-        <v>-5.976807436000009E-2</v>
-      </c>
-      <c r="BJ5">
-        <f t="shared" si="0"/>
-        <v>-7.2860024319999939E-2</v>
-      </c>
-      <c r="BK5">
-        <f t="shared" si="0"/>
-        <v>3.1858589959999906E-2</v>
-      </c>
-      <c r="BL5">
-        <f t="shared" si="0"/>
-        <v>2.9470183120000049E-2</v>
-      </c>
-      <c r="BM5">
-        <f t="shared" si="0"/>
-        <v>0.55357510131999998</v>
-      </c>
-      <c r="BN5">
-        <f t="shared" si="0"/>
-        <v>0.29719955544000021</v>
-      </c>
-      <c r="BO5">
-        <f t="shared" ref="BO5:CW5" si="1">BO3-BO4</f>
-        <v>-2.789974168000009E-2</v>
-      </c>
-      <c r="BP5">
-        <f t="shared" si="1"/>
-        <v>0.16538475508000017</v>
-      </c>
-      <c r="BQ5">
-        <f t="shared" si="1"/>
-        <v>7.4607091639999901E-2</v>
-      </c>
-      <c r="BR5">
-        <f t="shared" si="1"/>
-        <v>-3.0619113880000048E-2</v>
-      </c>
-      <c r="BS5">
-        <f t="shared" si="1"/>
-        <v>1.7604132800000061E-2</v>
-      </c>
-      <c r="BT5">
-        <f t="shared" si="1"/>
-        <v>2.8619650159999899E-2</v>
-      </c>
-      <c r="BU5">
-        <f t="shared" si="1"/>
-        <v>-0.18376527655999991</v>
-      </c>
-      <c r="BV5">
-        <f t="shared" si="1"/>
-        <v>-1.202779619999983E-2</v>
-      </c>
-      <c r="BW5">
-        <f t="shared" si="1"/>
-        <v>4.1971838839999914E-2</v>
-      </c>
-      <c r="BX5">
-        <f t="shared" si="1"/>
-        <v>-7.2716727280000004E-2</v>
-      </c>
-      <c r="BY5">
-        <f t="shared" si="1"/>
-        <v>0.18906538828000002</v>
-      </c>
-      <c r="BZ5">
-        <f t="shared" si="1"/>
-        <v>-0.17509586284000001</v>
-      </c>
-      <c r="CA5">
-        <f t="shared" si="1"/>
-        <v>6.7387356439999935E-2</v>
-      </c>
-      <c r="CB5">
-        <f t="shared" si="1"/>
-        <v>0.25617680248000002</v>
-      </c>
-      <c r="CC5">
-        <f t="shared" si="1"/>
-        <v>-0.17222795664000023</v>
-      </c>
-      <c r="CD5">
-        <f t="shared" si="1"/>
-        <v>4.3673954159999973E-2</v>
-      </c>
-      <c r="CE5">
-        <f t="shared" si="1"/>
-        <v>-3.8686588000000133E-2</v>
-      </c>
-      <c r="CF5">
-        <f t="shared" si="1"/>
-        <v>0.11664271100000012</v>
-      </c>
-      <c r="CG5">
-        <f t="shared" si="1"/>
-        <v>-0.14291258771999998</v>
-      </c>
-      <c r="CH5">
-        <f t="shared" si="1"/>
-        <v>4.9805169999999954E-2</v>
-      </c>
-      <c r="CI5">
-        <f t="shared" si="1"/>
-        <v>-0.20266213911999997</v>
-      </c>
-      <c r="CJ5">
-        <f t="shared" si="1"/>
-        <v>-1.2127893440000204E-2</v>
-      </c>
-      <c r="CK5">
-        <f t="shared" si="1"/>
-        <v>-0.12989487984000003</v>
-      </c>
-      <c r="CL5">
-        <f t="shared" si="1"/>
-        <v>-7.2253607600001324E-3</v>
-      </c>
-      <c r="CM5">
-        <f t="shared" si="1"/>
-        <v>-0.38636649216000007</v>
-      </c>
-      <c r="CN5">
-        <f t="shared" si="1"/>
-        <v>2.7410137600000217E-3</v>
-      </c>
-      <c r="CO5">
-        <f t="shared" si="1"/>
-        <v>-0.13484235255999999</v>
-      </c>
-      <c r="CP5">
-        <f t="shared" si="1"/>
-        <v>-5.9505793479999958E-2</v>
-      </c>
-      <c r="CQ5">
-        <f t="shared" si="1"/>
-        <v>0.12217874215999991</v>
-      </c>
-      <c r="CR5">
-        <f t="shared" si="1"/>
-        <v>8.0892031440000012E-2</v>
-      </c>
-      <c r="CS5">
-        <f t="shared" si="1"/>
-        <v>-4.8311038920000215E-2</v>
-      </c>
-      <c r="CT5">
-        <f t="shared" si="1"/>
-        <v>-6.0778535120000088E-2</v>
-      </c>
-      <c r="CU5">
-        <f t="shared" si="1"/>
-        <v>0.15957692500000009</v>
-      </c>
-      <c r="CV5">
-        <f t="shared" si="1"/>
-        <v>4.2970432800001346E-3</v>
-      </c>
-      <c r="CW5">
-        <f t="shared" si="1"/>
-        <v>0.10697331920000008</v>
+        <v>144</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-6.4600000000000005E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>-0.2384</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.1095</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-0.66420000000000001</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-0.9365</v>
+      </c>
+      <c r="G5" s="2">
+        <v>-1.2784</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-0.44579999999999997</v>
+      </c>
+      <c r="I5" s="2">
+        <v>-0.86850000000000005</v>
+      </c>
+      <c r="J5" s="2">
+        <v>-1.3407</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="L5" s="2">
+        <v>-0.65500000000000003</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.1784</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.1946</v>
+      </c>
+      <c r="O5" s="2">
+        <v>-1.1961999999999999</v>
+      </c>
+      <c r="P5" s="2">
+        <v>-1.6001000000000001</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="R5" s="2">
+        <v>-0.62209999999999999</v>
+      </c>
+      <c r="S5" s="2">
+        <v>0.4965</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.41920000000000002</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0.249</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0.55359999999999998</v>
+      </c>
+      <c r="W5" s="2">
+        <v>-1.0685</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0.18809999999999999</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0.79649999999999999</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0.57740000000000002</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>-0.39040000000000002</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>-1.4157</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>-1.4238</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>-0.30659999999999998</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>0.30359999999999998</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0.6492</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0.24030000000000001</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>-1.4389000000000001</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.21510000000000001</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0.77410000000000001</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>0.71460000000000001</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>0.17050000000000001</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0.82530000000000003</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>-0.72550000000000003</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>-1.2166999999999999</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>-0.81399999999999995</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>-0.71809999999999996</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>-1.0623</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>-6.5699999999999995E-2</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>-0.6038</v>
+      </c>
+      <c r="AW5" s="2">
+        <v>-0.96099999999999997</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>-1.3514999999999999</v>
+      </c>
+      <c r="AY5" s="2">
+        <v>-0.70169999999999999</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>-0.78800000000000003</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>-1.1614</v>
+      </c>
+      <c r="BB5" s="2">
+        <v>0.81079999999999997</v>
+      </c>
+      <c r="BC5" s="2">
+        <v>0.75260000000000005</v>
+      </c>
+      <c r="BD5" s="2">
+        <v>0.57430000000000003</v>
+      </c>
+      <c r="BE5" s="2">
+        <v>-1.3003</v>
+      </c>
+      <c r="BF5" s="2">
+        <v>0.77229999999999999</v>
+      </c>
+      <c r="BG5" s="2">
+        <v>8.5699999999999998E-2</v>
+      </c>
+      <c r="BH5" s="2">
+        <v>0.48780000000000001</v>
+      </c>
+      <c r="BI5" s="2">
+        <v>0.59309999999999996</v>
+      </c>
+      <c r="BJ5" s="2">
+        <v>0.29620000000000002</v>
+      </c>
+      <c r="BK5" s="2">
+        <v>0.50790000000000002</v>
+      </c>
+      <c r="BL5" s="2">
+        <v>0.26269999999999999</v>
+      </c>
+      <c r="BM5" s="2">
+        <v>-0.1487</v>
+      </c>
+      <c r="BN5" s="2">
+        <v>-1.2283999999999999</v>
+      </c>
+      <c r="BO5" s="2">
+        <v>0.71289999999999998</v>
+      </c>
+      <c r="BP5" s="2">
+        <v>-0.86339999999999995</v>
+      </c>
+      <c r="BQ5" s="2">
+        <v>0.8609</v>
+      </c>
+      <c r="BR5" s="2">
+        <v>0.83509999999999995</v>
+      </c>
+      <c r="BS5" s="2">
+        <v>0.89119999999999999</v>
+      </c>
+      <c r="BT5" s="2">
+        <v>0.8367</v>
+      </c>
+      <c r="BU5" s="2">
+        <v>0.55030000000000001</v>
+      </c>
+      <c r="BV5" s="2">
+        <v>0.73270000000000002</v>
+      </c>
+      <c r="BW5" s="2">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="BX5" s="2">
+        <v>0.69069999999999998</v>
+      </c>
+      <c r="BY5" s="2">
+        <v>0.1074</v>
+      </c>
+      <c r="BZ5" s="2">
+        <v>-0.21820000000000001</v>
+      </c>
+      <c r="CA5" s="2">
+        <v>0.89570000000000005</v>
+      </c>
+      <c r="CB5" s="2">
+        <v>0.61060000000000003</v>
+      </c>
+      <c r="CC5" s="2">
+        <v>0.74309999999999998</v>
+      </c>
+      <c r="CD5" s="2">
+        <v>0.28960000000000002</v>
+      </c>
+      <c r="CE5" s="2">
+        <v>0.5514</v>
+      </c>
+      <c r="CF5" s="2">
+        <v>-1.6396999999999999</v>
+      </c>
+      <c r="CG5" s="2">
+        <v>0.44159999999999999</v>
+      </c>
+      <c r="CH5" s="2">
+        <v>-0.73419999999999996</v>
+      </c>
+      <c r="CI5" s="2">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="CJ5" s="2">
+        <v>0.78669999999999995</v>
+      </c>
+      <c r="CK5" s="2">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="CL5" s="2">
+        <v>0.82479999999999998</v>
+      </c>
+      <c r="CM5" s="2">
+        <v>0.67859999999999998</v>
+      </c>
+      <c r="CN5" s="2">
+        <v>0.79490000000000005</v>
+      </c>
+      <c r="CO5" s="2">
+        <v>0.58030000000000004</v>
+      </c>
+      <c r="CP5" s="2">
+        <v>0.6431</v>
+      </c>
+      <c r="CQ5" s="2">
+        <v>0.86660000000000004</v>
+      </c>
+      <c r="CR5" s="2">
+        <v>0.80210000000000004</v>
+      </c>
+      <c r="CS5" s="2">
+        <v>0.76070000000000004</v>
+      </c>
+      <c r="CT5" s="2">
+        <v>-0.63839999999999997</v>
+      </c>
+      <c r="CU5" s="2">
+        <v>-0.64300000000000002</v>
+      </c>
+      <c r="CV5" s="2">
+        <v>0.9143</v>
+      </c>
+      <c r="CW5" s="2">
+        <v>0.67679999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:103">
@@ -3120,642 +3063,637 @@
         <v>0.333342264</v>
       </c>
     </row>
-    <row r="11" spans="1:103">
-      <c r="A11" s="3" t="s">
-        <v>131</v>
+    <row r="10" spans="1:103">
+      <c r="A10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10">
+        <v>0.81069999999999998</v>
+      </c>
+      <c r="C10">
+        <v>0.80810000000000004</v>
+      </c>
+      <c r="D10">
+        <v>0.65180000000000005</v>
+      </c>
+      <c r="E10">
+        <v>0.84330000000000005</v>
+      </c>
+      <c r="F10">
+        <v>0.76</v>
+      </c>
+      <c r="G10">
+        <v>0.64929999999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.84050000000000002</v>
+      </c>
+      <c r="I10">
+        <v>0.76529999999999998</v>
+      </c>
+      <c r="J10">
+        <v>0.69320000000000004</v>
+      </c>
+      <c r="K10">
+        <v>0.45390000000000003</v>
+      </c>
+      <c r="L10">
+        <v>0.82809999999999995</v>
+      </c>
+      <c r="M10">
+        <v>0.74319999999999997</v>
+      </c>
+      <c r="N10">
+        <v>0.71809999999999996</v>
+      </c>
+      <c r="O10">
+        <v>0.65849999999999997</v>
+      </c>
+      <c r="P10">
+        <v>0.69169999999999998</v>
+      </c>
+      <c r="Q10">
+        <v>0.69310000000000005</v>
+      </c>
+      <c r="R10">
+        <v>0.77429999999999999</v>
+      </c>
+      <c r="S10">
+        <v>0.56240000000000001</v>
+      </c>
+      <c r="T10">
+        <v>0.58720000000000006</v>
+      </c>
+      <c r="U10">
+        <v>0.64539999999999997</v>
+      </c>
+      <c r="V10">
+        <v>0.61529999999999996</v>
+      </c>
+      <c r="W10">
+        <v>0.70909999999999995</v>
+      </c>
+      <c r="X10">
+        <v>0.56640000000000001</v>
+      </c>
+      <c r="Y10">
+        <v>0.68840000000000001</v>
+      </c>
+      <c r="Z10">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="AA10">
+        <v>0.62629999999999997</v>
+      </c>
+      <c r="AB10">
+        <v>0.99790000000000001</v>
+      </c>
+      <c r="AC10">
+        <v>0.63949999999999996</v>
+      </c>
+      <c r="AD10">
+        <v>0.74009999999999998</v>
+      </c>
+      <c r="AE10">
+        <v>0.74390000000000001</v>
+      </c>
+      <c r="AF10">
+        <v>0.86280000000000001</v>
+      </c>
+      <c r="AG10">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="AH10">
+        <v>0.52629999999999999</v>
+      </c>
+      <c r="AI10">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="AJ10">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="AK10">
+        <v>0.67</v>
+      </c>
+      <c r="AL10">
+        <v>0.40129999999999999</v>
+      </c>
+      <c r="AM10">
+        <v>0.37640000000000001</v>
+      </c>
+      <c r="AN10">
+        <v>0.62949999999999995</v>
+      </c>
+      <c r="AO10">
+        <v>0.2722</v>
+      </c>
+      <c r="AP10">
+        <v>0.78739999999999999</v>
+      </c>
+      <c r="AQ10">
+        <v>0.84809999999999997</v>
+      </c>
+      <c r="AR10">
+        <v>0.9073</v>
+      </c>
+      <c r="AS10">
+        <v>0.85340000000000005</v>
+      </c>
+      <c r="AT10">
+        <v>0.77370000000000005</v>
+      </c>
+      <c r="AU10">
+        <v>0.84130000000000005</v>
+      </c>
+      <c r="AV10">
+        <v>0.87990000000000002</v>
+      </c>
+      <c r="AW10">
+        <v>0.72289999999999999</v>
+      </c>
+      <c r="AX10">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="AY10">
+        <v>0.92130000000000001</v>
+      </c>
+      <c r="AZ10">
+        <v>0.7631</v>
+      </c>
+      <c r="BA10">
+        <v>0.75570000000000004</v>
+      </c>
+      <c r="BB10">
+        <v>0.33779999999999999</v>
+      </c>
+      <c r="BC10">
+        <v>0.42280000000000001</v>
+      </c>
+      <c r="BD10">
+        <v>0.56859999999999999</v>
+      </c>
+      <c r="BE10">
+        <v>0.77949999999999997</v>
+      </c>
+      <c r="BF10">
+        <v>0.37330000000000002</v>
+      </c>
+      <c r="BG10">
+        <v>0.73939999999999995</v>
+      </c>
+      <c r="BH10">
+        <v>0.51790000000000003</v>
+      </c>
+      <c r="BI10">
+        <v>0.58789999999999998</v>
+      </c>
+      <c r="BJ10">
+        <v>0.63029999999999997</v>
+      </c>
+      <c r="BK10">
+        <v>0.4783</v>
+      </c>
+      <c r="BL10">
+        <v>0.64710000000000001</v>
+      </c>
+      <c r="BM10">
+        <v>0.77129999999999999</v>
+      </c>
+      <c r="BN10">
+        <v>0.754</v>
+      </c>
+      <c r="BO10">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="BP10">
+        <v>0.71519999999999995</v>
+      </c>
+      <c r="BQ10">
+        <v>0.23549999999999999</v>
+      </c>
+      <c r="BR10">
+        <v>0.27939999999999998</v>
+      </c>
+      <c r="BS10">
+        <v>0.23780000000000001</v>
+      </c>
+      <c r="BT10">
+        <v>0.27739999999999998</v>
+      </c>
+      <c r="BU10">
+        <v>0.56510000000000005</v>
+      </c>
+      <c r="BV10">
+        <v>0.37180000000000002</v>
+      </c>
+      <c r="BW10">
+        <v>0.62629999999999997</v>
+      </c>
+      <c r="BX10">
+        <v>0.47989999999999999</v>
+      </c>
+      <c r="BY10">
+        <v>0.79039999999999999</v>
+      </c>
+      <c r="BZ10">
+        <v>0.95709999999999995</v>
+      </c>
+      <c r="CA10">
+        <v>0.33779999999999999</v>
+      </c>
+      <c r="CB10">
+        <v>0.50729999999999997</v>
+      </c>
+      <c r="CC10">
+        <v>0.40129999999999999</v>
+      </c>
+      <c r="CD10">
+        <v>0.65329999999999999</v>
+      </c>
+      <c r="CE10">
+        <v>0.47349999999999998</v>
+      </c>
+      <c r="CF10">
+        <v>0.58050000000000002</v>
+      </c>
+      <c r="CG10">
+        <v>0.52849999999999997</v>
+      </c>
+      <c r="CH10">
+        <v>0.93810000000000004</v>
+      </c>
+      <c r="CI10">
+        <v>0.4385</v>
+      </c>
+      <c r="CJ10">
+        <v>0.29360000000000003</v>
+      </c>
+      <c r="CK10">
+        <v>0.47739999999999999</v>
+      </c>
+      <c r="CL10">
+        <v>0.2525</v>
+      </c>
+      <c r="CM10">
+        <v>0.61070000000000002</v>
+      </c>
+      <c r="CN10">
+        <v>0.28639999999999999</v>
+      </c>
+      <c r="CO10">
+        <v>0.45850000000000002</v>
+      </c>
+      <c r="CP10">
+        <v>0.42580000000000001</v>
+      </c>
+      <c r="CQ10">
+        <v>0.2828</v>
+      </c>
+      <c r="CR10">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="CS10">
+        <v>0.31780000000000003</v>
+      </c>
+      <c r="CT10">
+        <v>0.68869999999999998</v>
+      </c>
+      <c r="CU10">
+        <v>0.83850000000000002</v>
+      </c>
+      <c r="CV10">
+        <v>0.26019999999999999</v>
+      </c>
+      <c r="CW10">
+        <v>0.3881</v>
       </c>
     </row>
     <row r="12" spans="1:103">
       <c r="A12" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="2">
-        <v>-3.078380026</v>
-      </c>
-      <c r="C12" s="2">
-        <v>-2.4502749009999998</v>
-      </c>
-      <c r="D12" s="2">
-        <v>-5.3913412860000003</v>
-      </c>
-      <c r="E12" s="2">
-        <v>-4.5918804990000002</v>
-      </c>
-      <c r="F12" s="2">
-        <v>-4.4160005440000001</v>
-      </c>
-      <c r="G12" s="2">
-        <v>-4.80605729</v>
-      </c>
-      <c r="H12" s="2">
-        <v>-3.5512473820000001</v>
-      </c>
-      <c r="I12" s="2">
-        <v>-4.0680428629999996</v>
-      </c>
-      <c r="J12" s="2">
-        <v>-3.2039144679999998</v>
-      </c>
-      <c r="K12" s="2">
-        <v>-3.0541584070000001</v>
-      </c>
-      <c r="L12" s="2">
-        <v>-4.5744619660000003</v>
-      </c>
-      <c r="M12" s="2">
-        <v>-2.5785500890000002</v>
-      </c>
-      <c r="N12" s="2">
-        <v>-3.7033430460000001</v>
-      </c>
-      <c r="O12" s="2">
-        <v>-2.443135147</v>
-      </c>
-      <c r="P12" s="2">
-        <v>-3.9150960440000002</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>-1.6633335039999999</v>
-      </c>
-      <c r="R12" s="2">
-        <v>-1.607429319</v>
-      </c>
-      <c r="S12" s="2">
-        <v>-1.9352053890000001</v>
-      </c>
-      <c r="T12" s="2">
-        <v>-1.8251813509999999</v>
-      </c>
-      <c r="U12" s="2">
-        <v>-1.5653682959999999</v>
-      </c>
-      <c r="V12" s="2">
-        <v>-1.475506582</v>
-      </c>
-      <c r="W12" s="2">
-        <v>-1.4380846679999999</v>
-      </c>
-      <c r="X12" s="2">
-        <v>-1.5605201040000001</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>-1.577957566</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>-1.346239301</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>-1.5240609169999999</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>-1.1866777719999999</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>-1.843413411</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>-1.839937154</v>
-      </c>
-      <c r="AE12" s="2">
-        <v>-1.3472260170000001</v>
-      </c>
-      <c r="AF12" s="2">
-        <v>-0.37194032799999999</v>
-      </c>
-      <c r="AG12" s="2">
-        <v>-0.44837400999999999</v>
-      </c>
-      <c r="AH12" s="2">
-        <v>-0.768545959</v>
-      </c>
-      <c r="AI12" s="2">
-        <v>-7.2317329E-2</v>
-      </c>
-      <c r="AJ12" s="2">
-        <v>-0.90131050800000001</v>
-      </c>
-      <c r="AK12" s="2">
-        <v>-0.35291929300000002</v>
-      </c>
-      <c r="AL12" s="2">
-        <v>-0.17039973</v>
-      </c>
-      <c r="AM12" s="2">
-        <v>-0.52652058800000001</v>
-      </c>
-      <c r="AN12" s="2">
-        <v>-0.196017357</v>
-      </c>
-      <c r="AO12" s="2">
-        <v>-0.13992004699999999</v>
-      </c>
-      <c r="AP12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="2">
-        <v>3.9154372E-2</v>
-      </c>
-      <c r="BA12" s="2">
-        <v>0.14338632000000001</v>
-      </c>
-      <c r="BB12" s="2">
-        <v>0.56993548100000002</v>
-      </c>
-      <c r="BC12" s="2">
-        <v>0.48663012500000002</v>
-      </c>
-      <c r="BD12" s="2">
-        <v>1.205441E-2</v>
-      </c>
-      <c r="BE12" s="2">
-        <v>0.64011733999999998</v>
-      </c>
-      <c r="BF12" s="2">
-        <v>0.76432405599999997</v>
-      </c>
-      <c r="BG12" s="2">
-        <v>1.5677375E-2</v>
-      </c>
-      <c r="BH12" s="2">
-        <v>0.23580763599999999</v>
-      </c>
-      <c r="BI12" s="2">
-        <v>0.196055695</v>
-      </c>
-      <c r="BJ12" s="2">
-        <v>1.5310955289999999</v>
-      </c>
-      <c r="BK12" s="2">
-        <v>1.0423256160000001</v>
-      </c>
-      <c r="BL12" s="2">
-        <v>1.6930991040000001</v>
-      </c>
-      <c r="BM12" s="2">
-        <v>1.5275146580000001</v>
-      </c>
-      <c r="BN12" s="2">
-        <v>1.5893690300000001</v>
-      </c>
-      <c r="BO12" s="2">
-        <v>1.5784306269999999</v>
-      </c>
-      <c r="BP12" s="2">
-        <v>1.1992356150000001</v>
-      </c>
-      <c r="BQ12" s="2">
-        <v>1.69969305</v>
-      </c>
-      <c r="BR12" s="2">
-        <v>1.287542824</v>
-      </c>
-      <c r="BS12" s="2">
-        <v>1.6889365839999999</v>
-      </c>
-      <c r="BT12" s="2">
-        <v>2.1404884110000002</v>
-      </c>
-      <c r="BU12" s="2">
-        <v>2.5048559680000002</v>
-      </c>
-      <c r="BV12" s="2">
-        <v>2.152003621</v>
-      </c>
-      <c r="BW12" s="2">
-        <v>2.5272575860000002</v>
-      </c>
-      <c r="BX12" s="2">
-        <v>2.7761815890000001</v>
-      </c>
-      <c r="BY12" s="2">
-        <v>2.9982774000000001</v>
-      </c>
-      <c r="BZ12" s="2">
-        <v>2.6830231699999998</v>
-      </c>
-      <c r="CA12" s="2">
-        <v>2.1500288040000002</v>
-      </c>
-      <c r="CB12" s="2">
-        <v>2.3311556389999999</v>
-      </c>
-      <c r="CC12" s="2">
-        <v>2.122437084</v>
-      </c>
-      <c r="CD12" s="2">
-        <v>2.1855556639999998</v>
-      </c>
-      <c r="CE12" s="2">
-        <v>2.4536163960000001</v>
-      </c>
-      <c r="CF12" s="2">
-        <v>2.0965165890000002</v>
-      </c>
-      <c r="CG12" s="2">
-        <v>2.072786061</v>
-      </c>
-      <c r="CH12" s="2">
-        <v>2.308199406</v>
-      </c>
-      <c r="CI12" s="2">
-        <v>3.9994053570000001</v>
-      </c>
-      <c r="CJ12" s="2">
-        <v>3.0225696229999999</v>
-      </c>
-      <c r="CK12" s="2">
-        <v>3.48976533</v>
-      </c>
-      <c r="CL12" s="2">
-        <v>3.103704794</v>
-      </c>
-      <c r="CM12" s="2">
-        <v>3.198237996</v>
-      </c>
-      <c r="CN12" s="2">
-        <v>3.2029031880000001</v>
-      </c>
-      <c r="CO12" s="2">
-        <v>3.7609191850000001</v>
-      </c>
-      <c r="CP12" s="2">
-        <v>3.4221781149999999</v>
-      </c>
-      <c r="CQ12" s="2">
-        <v>3.6706552989999999</v>
-      </c>
-      <c r="CR12" s="2">
-        <v>3.9245726950000002</v>
-      </c>
-      <c r="CS12" s="2">
-        <v>3.1290306600000002</v>
-      </c>
-      <c r="CT12" s="2">
-        <v>3.0407255009999998</v>
-      </c>
-      <c r="CU12" s="2">
-        <v>3.021963537</v>
-      </c>
-      <c r="CV12" s="2">
-        <v>3.3992102179999999</v>
-      </c>
-      <c r="CW12" s="2">
-        <v>3.5417597220000001</v>
-      </c>
-      <c r="CX12" s="2"/>
-      <c r="CY12" s="2"/>
+        <v>130</v>
+      </c>
     </row>
     <row r="13" spans="1:103">
-      <c r="A13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D13" t="s">
-        <v>132</v>
-      </c>
-      <c r="H13" t="s">
-        <v>134</v>
-      </c>
+      <c r="A13" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-3.078380026</v>
+      </c>
+      <c r="C13" s="2">
+        <v>-2.4502749009999998</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-5.3913412860000003</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-4.5918804990000002</v>
+      </c>
+      <c r="F13" s="2">
+        <v>-4.4160005440000001</v>
+      </c>
+      <c r="G13" s="2">
+        <v>-4.80605729</v>
+      </c>
+      <c r="H13" s="2">
+        <v>-3.5512473820000001</v>
+      </c>
+      <c r="I13" s="2">
+        <v>-4.0680428629999996</v>
+      </c>
+      <c r="J13" s="2">
+        <v>-3.2039144679999998</v>
+      </c>
+      <c r="K13" s="2">
+        <v>-3.0541584070000001</v>
+      </c>
+      <c r="L13" s="2">
+        <v>-4.5744619660000003</v>
+      </c>
+      <c r="M13" s="2">
+        <v>-2.5785500890000002</v>
+      </c>
+      <c r="N13" s="2">
+        <v>-3.7033430460000001</v>
+      </c>
+      <c r="O13" s="2">
+        <v>-2.443135147</v>
+      </c>
+      <c r="P13" s="2">
+        <v>-3.9150960440000002</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>-1.6633335039999999</v>
+      </c>
+      <c r="R13" s="2">
+        <v>-1.607429319</v>
+      </c>
+      <c r="S13" s="2">
+        <v>-1.9352053890000001</v>
+      </c>
+      <c r="T13" s="2">
+        <v>-1.8251813509999999</v>
+      </c>
+      <c r="U13" s="2">
+        <v>-1.5653682959999999</v>
+      </c>
+      <c r="V13" s="2">
+        <v>-1.475506582</v>
+      </c>
+      <c r="W13" s="2">
+        <v>-1.4380846679999999</v>
+      </c>
+      <c r="X13" s="2">
+        <v>-1.5605201040000001</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>-1.577957566</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>-1.346239301</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>-1.5240609169999999</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>-1.1866777719999999</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>-1.843413411</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>-1.839937154</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>-1.3472260170000001</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>-0.37194032799999999</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>-0.44837400999999999</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>-0.768545959</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>-7.2317329E-2</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>-0.90131050800000001</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>-0.35291929300000002</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>-0.17039973</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>-0.52652058800000001</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>-0.196017357</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>-0.13992004699999999</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="2">
+        <v>3.9154372E-2</v>
+      </c>
+      <c r="BA13" s="2">
+        <v>0.14338632000000001</v>
+      </c>
+      <c r="BB13" s="2">
+        <v>0.56993548100000002</v>
+      </c>
+      <c r="BC13" s="2">
+        <v>0.48663012500000002</v>
+      </c>
+      <c r="BD13" s="2">
+        <v>1.205441E-2</v>
+      </c>
+      <c r="BE13" s="2">
+        <v>0.64011733999999998</v>
+      </c>
+      <c r="BF13" s="2">
+        <v>0.76432405599999997</v>
+      </c>
+      <c r="BG13" s="2">
+        <v>1.5677375E-2</v>
+      </c>
+      <c r="BH13" s="2">
+        <v>0.23580763599999999</v>
+      </c>
+      <c r="BI13" s="2">
+        <v>0.196055695</v>
+      </c>
+      <c r="BJ13" s="2">
+        <v>1.5310955289999999</v>
+      </c>
+      <c r="BK13" s="2">
+        <v>1.0423256160000001</v>
+      </c>
+      <c r="BL13" s="2">
+        <v>1.6930991040000001</v>
+      </c>
+      <c r="BM13" s="2">
+        <v>1.5275146580000001</v>
+      </c>
+      <c r="BN13" s="2">
+        <v>1.5893690300000001</v>
+      </c>
+      <c r="BO13" s="2">
+        <v>1.5784306269999999</v>
+      </c>
+      <c r="BP13" s="2">
+        <v>1.1992356150000001</v>
+      </c>
+      <c r="BQ13" s="2">
+        <v>1.69969305</v>
+      </c>
+      <c r="BR13" s="2">
+        <v>1.287542824</v>
+      </c>
+      <c r="BS13" s="2">
+        <v>1.6889365839999999</v>
+      </c>
+      <c r="BT13" s="2">
+        <v>2.1404884110000002</v>
+      </c>
+      <c r="BU13" s="2">
+        <v>2.5048559680000002</v>
+      </c>
+      <c r="BV13" s="2">
+        <v>2.152003621</v>
+      </c>
+      <c r="BW13" s="2">
+        <v>2.5272575860000002</v>
+      </c>
+      <c r="BX13" s="2">
+        <v>2.7761815890000001</v>
+      </c>
+      <c r="BY13" s="2">
+        <v>2.9982774000000001</v>
+      </c>
+      <c r="BZ13" s="2">
+        <v>2.6830231699999998</v>
+      </c>
+      <c r="CA13" s="2">
+        <v>2.1500288040000002</v>
+      </c>
+      <c r="CB13" s="2">
+        <v>2.3311556389999999</v>
+      </c>
+      <c r="CC13" s="2">
+        <v>2.122437084</v>
+      </c>
+      <c r="CD13" s="2">
+        <v>2.1855556639999998</v>
+      </c>
+      <c r="CE13" s="2">
+        <v>2.4536163960000001</v>
+      </c>
+      <c r="CF13" s="2">
+        <v>2.0965165890000002</v>
+      </c>
+      <c r="CG13" s="2">
+        <v>2.072786061</v>
+      </c>
+      <c r="CH13" s="2">
+        <v>2.308199406</v>
+      </c>
+      <c r="CI13" s="2">
+        <v>3.9994053570000001</v>
+      </c>
+      <c r="CJ13" s="2">
+        <v>3.0225696229999999</v>
+      </c>
+      <c r="CK13" s="2">
+        <v>3.48976533</v>
+      </c>
+      <c r="CL13" s="2">
+        <v>3.103704794</v>
+      </c>
+      <c r="CM13" s="2">
+        <v>3.198237996</v>
+      </c>
+      <c r="CN13" s="2">
+        <v>3.2029031880000001</v>
+      </c>
+      <c r="CO13" s="2">
+        <v>3.7609191850000001</v>
+      </c>
+      <c r="CP13" s="2">
+        <v>3.4221781149999999</v>
+      </c>
+      <c r="CQ13" s="2">
+        <v>3.6706552989999999</v>
+      </c>
+      <c r="CR13" s="2">
+        <v>3.9245726950000002</v>
+      </c>
+      <c r="CS13" s="2">
+        <v>3.1290306600000002</v>
+      </c>
+      <c r="CT13" s="2">
+        <v>3.0407255009999998</v>
+      </c>
+      <c r="CU13" s="2">
+        <v>3.021963537</v>
+      </c>
+      <c r="CV13" s="2">
+        <v>3.3992102179999999</v>
+      </c>
+      <c r="CW13" s="2">
+        <v>3.5417597220000001</v>
+      </c>
+      <c r="CX13" s="2"/>
+      <c r="CY13" s="2"/>
     </row>
     <row r="14" spans="1:103">
-      <c r="A14" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>15</v>
-      </c>
-      <c r="J14">
-        <v>2</v>
-      </c>
-      <c r="K14">
-        <v>64</v>
-      </c>
-      <c r="L14">
-        <v>9</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>5</v>
-      </c>
-      <c r="S14">
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <v>4</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>4</v>
-      </c>
-      <c r="W14">
-        <v>18</v>
-      </c>
-      <c r="X14">
-        <v>10</v>
-      </c>
-      <c r="Y14">
-        <v>10</v>
-      </c>
-      <c r="Z14">
-        <v>38</v>
-      </c>
-      <c r="AA14">
-        <v>5</v>
-      </c>
-      <c r="AB14">
-        <v>67</v>
-      </c>
-      <c r="AC14">
-        <v>1</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>80</v>
-      </c>
-      <c r="AF14">
-        <v>3</v>
-      </c>
-      <c r="AG14">
-        <v>35</v>
-      </c>
-      <c r="AH14">
-        <v>95</v>
-      </c>
-      <c r="AI14">
-        <v>9</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>112</v>
-      </c>
-      <c r="AM14">
-        <v>14</v>
-      </c>
-      <c r="AN14">
-        <v>7</v>
-      </c>
-      <c r="AO14">
-        <v>61</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
-      <c r="AZ14">
-        <v>27</v>
-      </c>
-      <c r="BA14">
-        <v>13</v>
-      </c>
-      <c r="BB14">
-        <v>1357</v>
-      </c>
-      <c r="BC14">
-        <v>27</v>
-      </c>
-      <c r="BD14">
-        <v>20</v>
-      </c>
-      <c r="BE14">
-        <v>13</v>
-      </c>
-      <c r="BF14">
-        <v>127</v>
-      </c>
-      <c r="BG14">
-        <v>7</v>
-      </c>
-      <c r="BH14">
-        <v>7</v>
-      </c>
-      <c r="BI14">
-        <v>58</v>
-      </c>
-      <c r="BJ14">
-        <v>2</v>
-      </c>
-      <c r="BK14">
-        <v>2</v>
-      </c>
-      <c r="BL14">
-        <v>0</v>
-      </c>
-      <c r="BM14">
-        <v>6</v>
-      </c>
-      <c r="BN14">
-        <v>0</v>
-      </c>
-      <c r="BO14">
-        <v>8</v>
-      </c>
-      <c r="BP14">
-        <v>12</v>
-      </c>
-      <c r="BQ14">
-        <v>181</v>
-      </c>
-      <c r="BR14">
-        <v>440</v>
-      </c>
-      <c r="BS14">
-        <v>78</v>
-      </c>
-      <c r="BT14">
-        <v>192</v>
-      </c>
-      <c r="BU14">
-        <v>18</v>
-      </c>
-      <c r="BV14">
-        <v>120</v>
-      </c>
-      <c r="BW14">
-        <v>9</v>
-      </c>
-      <c r="BX14">
-        <v>169</v>
-      </c>
-      <c r="BY14">
-        <v>446</v>
-      </c>
-      <c r="BZ14">
-        <v>305</v>
-      </c>
-      <c r="CA14">
-        <v>1448</v>
-      </c>
-      <c r="CB14">
-        <v>2635</v>
-      </c>
-      <c r="CC14">
-        <v>45</v>
-      </c>
-      <c r="CD14">
-        <v>1</v>
-      </c>
-      <c r="CE14">
-        <v>41</v>
-      </c>
-      <c r="CF14">
-        <v>5</v>
-      </c>
-      <c r="CG14">
-        <v>1013</v>
-      </c>
-      <c r="CH14">
-        <v>87</v>
-      </c>
-      <c r="CI14">
-        <v>56</v>
-      </c>
-      <c r="CJ14">
-        <v>80</v>
-      </c>
-      <c r="CK14">
-        <v>252</v>
-      </c>
-      <c r="CL14">
-        <v>379</v>
-      </c>
-      <c r="CM14">
-        <v>2397</v>
-      </c>
-      <c r="CN14">
-        <v>154</v>
-      </c>
-      <c r="CO14">
-        <v>79</v>
-      </c>
-      <c r="CP14">
-        <v>27</v>
-      </c>
-      <c r="CQ14">
-        <v>458</v>
-      </c>
-      <c r="CR14">
-        <v>197</v>
-      </c>
-      <c r="CS14">
-        <v>587</v>
-      </c>
-      <c r="CT14">
-        <v>0</v>
-      </c>
-      <c r="CU14">
-        <v>1</v>
-      </c>
-      <c r="CV14">
-        <v>186</v>
-      </c>
-      <c r="CW14">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:103">
-      <c r="A15" t="s">
-        <v>135</v>
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:103">
       <c r="A16" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3776,25 +3714,25 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.69310000000000005</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>2.7081</v>
+        <v>15</v>
       </c>
       <c r="J16">
-        <v>0.69310000000000005</v>
+        <v>2</v>
       </c>
       <c r="K16">
-        <v>4.1589</v>
+        <v>64</v>
       </c>
       <c r="L16">
-        <v>2.1972</v>
+        <v>9</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -3806,58 +3744,58 @@
         <v>0</v>
       </c>
       <c r="R16">
-        <v>1.6093999999999999</v>
+        <v>5</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>1.3863000000000001</v>
+        <v>4</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16">
-        <v>1.3863000000000001</v>
+        <v>4</v>
       </c>
       <c r="W16">
-        <v>2.8904000000000001</v>
+        <v>18</v>
       </c>
       <c r="X16">
-        <v>2.3026</v>
+        <v>10</v>
       </c>
       <c r="Y16">
-        <v>2.3026</v>
+        <v>10</v>
       </c>
       <c r="Z16">
-        <v>3.6375999999999999</v>
+        <v>38</v>
       </c>
       <c r="AA16">
-        <v>1.6093999999999999</v>
+        <v>5</v>
       </c>
       <c r="AB16">
-        <v>4.2046999999999999</v>
+        <v>67</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16">
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>4.3819999999999997</v>
+        <v>80</v>
       </c>
       <c r="AF16">
-        <v>1.0986</v>
+        <v>3</v>
       </c>
       <c r="AG16">
-        <v>3.5552999999999999</v>
+        <v>35</v>
       </c>
       <c r="AH16">
-        <v>4.5538999999999996</v>
+        <v>95</v>
       </c>
       <c r="AI16">
-        <v>2.1972</v>
+        <v>9</v>
       </c>
       <c r="AJ16">
         <v>0</v>
@@ -3866,16 +3804,16 @@
         <v>0</v>
       </c>
       <c r="AL16">
-        <v>4.7184999999999997</v>
+        <v>112</v>
       </c>
       <c r="AM16">
-        <v>2.6391</v>
+        <v>14</v>
       </c>
       <c r="AN16">
-        <v>1.9459</v>
+        <v>7</v>
       </c>
       <c r="AO16">
-        <v>4.1109</v>
+        <v>61</v>
       </c>
       <c r="AP16">
         <v>0</v>
@@ -3908,164 +3846,167 @@
         <v>0</v>
       </c>
       <c r="AZ16">
-        <v>3.2957999999999998</v>
+        <v>27</v>
       </c>
       <c r="BA16">
-        <v>2.5649000000000002</v>
+        <v>13</v>
       </c>
       <c r="BB16">
-        <v>7.2130000000000001</v>
+        <v>1357</v>
       </c>
       <c r="BC16">
-        <v>3.2957999999999998</v>
+        <v>27</v>
       </c>
       <c r="BD16">
-        <v>2.9956999999999998</v>
+        <v>20</v>
       </c>
       <c r="BE16">
-        <v>2.5649000000000002</v>
+        <v>13</v>
       </c>
       <c r="BF16">
-        <v>4.8441999999999998</v>
+        <v>127</v>
       </c>
       <c r="BG16">
-        <v>1.9459</v>
+        <v>7</v>
       </c>
       <c r="BH16">
-        <v>1.9459</v>
+        <v>7</v>
       </c>
       <c r="BI16">
-        <v>4.0603999999999996</v>
+        <v>58</v>
       </c>
       <c r="BJ16">
-        <v>0.69310000000000005</v>
+        <v>2</v>
       </c>
       <c r="BK16">
-        <v>0.69310000000000005</v>
+        <v>2</v>
       </c>
       <c r="BL16">
         <v>0</v>
       </c>
       <c r="BM16">
-        <v>1.7918000000000001</v>
+        <v>6</v>
       </c>
       <c r="BN16">
         <v>0</v>
       </c>
       <c r="BO16">
-        <v>2.0794000000000001</v>
+        <v>8</v>
       </c>
       <c r="BP16">
-        <v>2.4849000000000001</v>
+        <v>12</v>
       </c>
       <c r="BQ16">
-        <v>5.1985000000000001</v>
+        <v>181</v>
       </c>
       <c r="BR16">
-        <v>6.0868000000000002</v>
+        <v>440</v>
       </c>
       <c r="BS16">
-        <v>4.3567</v>
+        <v>78</v>
       </c>
       <c r="BT16">
-        <v>5.2575000000000003</v>
+        <v>192</v>
       </c>
       <c r="BU16">
-        <v>2.8904000000000001</v>
+        <v>18</v>
       </c>
       <c r="BV16">
-        <v>4.7874999999999996</v>
+        <v>120</v>
       </c>
       <c r="BW16">
-        <v>2.1972</v>
+        <v>9</v>
       </c>
       <c r="BX16">
-        <v>5.1299000000000001</v>
+        <v>169</v>
       </c>
       <c r="BY16">
-        <v>6.1002999999999998</v>
+        <v>446</v>
       </c>
       <c r="BZ16">
-        <v>5.7202999999999999</v>
+        <v>305</v>
       </c>
       <c r="CA16">
-        <v>7.2778999999999998</v>
+        <v>1448</v>
       </c>
       <c r="CB16">
-        <v>7.8765999999999998</v>
+        <v>2635</v>
       </c>
       <c r="CC16">
-        <v>3.8067000000000002</v>
+        <v>45</v>
       </c>
       <c r="CD16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE16">
-        <v>3.7136</v>
+        <v>41</v>
       </c>
       <c r="CF16">
-        <v>1.6093999999999999</v>
+        <v>5</v>
       </c>
       <c r="CG16">
-        <v>6.9207000000000001</v>
+        <v>1013</v>
       </c>
       <c r="CH16">
-        <v>4.4659000000000004</v>
+        <v>87</v>
       </c>
       <c r="CI16">
-        <v>4.0254000000000003</v>
+        <v>56</v>
       </c>
       <c r="CJ16">
-        <v>4.3819999999999997</v>
+        <v>80</v>
       </c>
       <c r="CK16">
-        <v>5.5293999999999999</v>
+        <v>252</v>
       </c>
       <c r="CL16">
-        <v>5.9375</v>
+        <v>379</v>
       </c>
       <c r="CM16">
-        <v>7.782</v>
+        <v>2397</v>
       </c>
       <c r="CN16">
-        <v>5.0369999999999999</v>
+        <v>154</v>
       </c>
       <c r="CO16">
-        <v>4.3693999999999997</v>
+        <v>79</v>
       </c>
       <c r="CP16">
-        <v>3.2957999999999998</v>
+        <v>27</v>
       </c>
       <c r="CQ16">
-        <v>6.1269</v>
+        <v>458</v>
       </c>
       <c r="CR16">
-        <v>5.2831999999999999</v>
+        <v>197</v>
       </c>
       <c r="CS16">
-        <v>6.375</v>
+        <v>587</v>
       </c>
       <c r="CT16">
         <v>0</v>
       </c>
       <c r="CU16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CV16">
-        <v>5.2256999999999998</v>
+        <v>186</v>
       </c>
       <c r="CW16">
-        <v>3.9119999999999999</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:101">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>145</v>
+      </c>
+      <c r="B17">
+        <v>0.29160000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:101">
       <c r="A18" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4086,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.85240000000000005</v>
+        <v>0.69310000000000005</v>
       </c>
       <c r="I18">
-        <v>2.2989000000000002</v>
+        <v>2.7081</v>
       </c>
       <c r="J18">
-        <v>-0.74560000000000004</v>
+        <v>0.69310000000000005</v>
       </c>
       <c r="K18">
-        <v>2.1947000000000001</v>
+        <v>4.1589</v>
       </c>
       <c r="L18">
-        <v>3.4272</v>
+        <v>2.1972</v>
       </c>
       <c r="M18">
-        <v>3.2898999999999998</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.89359999999999995</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -4116,58 +4057,58 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>1.5188999999999999</v>
+        <v>1.6093999999999999</v>
       </c>
       <c r="S18">
-        <v>2.5148000000000001</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>3.7795000000000001</v>
+        <v>1.3863000000000001</v>
       </c>
       <c r="U18">
         <v>0</v>
       </c>
       <c r="V18">
-        <v>2.9805999999999999</v>
+        <v>1.3863000000000001</v>
       </c>
       <c r="W18">
-        <v>1.579</v>
+        <v>2.8904000000000001</v>
       </c>
       <c r="X18">
-        <v>1.2759</v>
+        <v>2.3026</v>
       </c>
       <c r="Y18">
-        <v>1.0770999999999999</v>
+        <v>2.3026</v>
       </c>
       <c r="Z18">
-        <v>3.1202999999999999</v>
+        <v>3.6375999999999999</v>
       </c>
       <c r="AA18">
-        <v>3.8896999999999999</v>
+        <v>1.6093999999999999</v>
       </c>
       <c r="AB18">
-        <v>2.7458999999999998</v>
+        <v>4.2046999999999999</v>
       </c>
       <c r="AC18">
-        <v>0.95189999999999997</v>
+        <v>0</v>
       </c>
       <c r="AD18">
         <v>0</v>
       </c>
       <c r="AE18">
-        <v>3.8311999999999999</v>
+        <v>4.3819999999999997</v>
       </c>
       <c r="AF18">
-        <v>4.4309000000000003</v>
+        <v>1.0986</v>
       </c>
       <c r="AG18">
-        <v>2.2222</v>
+        <v>3.5552999999999999</v>
       </c>
       <c r="AH18">
-        <v>2.4695</v>
+        <v>4.5538999999999996</v>
       </c>
       <c r="AI18">
-        <v>3.6271</v>
+        <v>2.1972</v>
       </c>
       <c r="AJ18">
         <v>0</v>
@@ -4176,16 +4117,16 @@
         <v>0</v>
       </c>
       <c r="AL18">
-        <v>4.5656999999999996</v>
+        <v>4.7184999999999997</v>
       </c>
       <c r="AM18">
-        <v>2.7277999999999998</v>
+        <v>2.6391</v>
       </c>
       <c r="AN18">
-        <v>2.0213999999999999</v>
+        <v>1.9459</v>
       </c>
       <c r="AO18">
-        <v>3.7412999999999998</v>
+        <v>4.1109</v>
       </c>
       <c r="AP18">
         <v>0</v>
@@ -4218,164 +4159,167 @@
         <v>0</v>
       </c>
       <c r="AZ18">
-        <v>2.5741999999999998</v>
+        <v>3.2957999999999998</v>
       </c>
       <c r="BA18">
-        <v>2.5872999999999999</v>
+        <v>2.5649000000000002</v>
       </c>
       <c r="BB18">
-        <v>4.5492999999999997</v>
+        <v>7.2130000000000001</v>
       </c>
       <c r="BC18">
-        <v>4.6468999999999996</v>
+        <v>3.2957999999999998</v>
       </c>
       <c r="BD18">
-        <v>4.2346000000000004</v>
+        <v>2.9956999999999998</v>
       </c>
       <c r="BE18">
-        <v>0.45760000000000001</v>
+        <v>2.5649000000000002</v>
       </c>
       <c r="BF18">
-        <v>3.1343000000000001</v>
+        <v>4.8441999999999998</v>
       </c>
       <c r="BG18">
-        <v>2.1335000000000002</v>
+        <v>1.9459</v>
       </c>
       <c r="BH18">
-        <v>4.9104999999999999</v>
+        <v>1.9459</v>
       </c>
       <c r="BI18">
-        <v>4.9482999999999997</v>
+        <v>4.0603999999999996</v>
       </c>
       <c r="BJ18">
-        <v>7.0086000000000004</v>
+        <v>0.69310000000000005</v>
       </c>
       <c r="BK18">
-        <v>4.3574999999999999</v>
+        <v>0.69310000000000005</v>
       </c>
       <c r="BL18">
         <v>0</v>
       </c>
       <c r="BM18">
-        <v>4.3503999999999996</v>
+        <v>1.7918000000000001</v>
       </c>
       <c r="BN18">
         <v>0</v>
       </c>
       <c r="BO18">
-        <v>2.9338000000000002</v>
+        <v>2.0794000000000001</v>
       </c>
       <c r="BP18">
-        <v>4.3102999999999998</v>
+        <v>2.4849000000000001</v>
       </c>
       <c r="BQ18">
-        <v>5.8597999999999999</v>
+        <v>5.1985000000000001</v>
       </c>
       <c r="BR18">
-        <v>5.5396000000000001</v>
+        <v>6.0868000000000002</v>
       </c>
       <c r="BS18">
-        <v>5.2389999999999999</v>
+        <v>4.3567</v>
       </c>
       <c r="BT18">
-        <v>7.2016</v>
+        <v>5.2575000000000003</v>
       </c>
       <c r="BU18">
-        <v>6.6782000000000004</v>
+        <v>2.8904000000000001</v>
       </c>
       <c r="BV18">
-        <v>3.7759999999999998</v>
+        <v>4.7874999999999996</v>
       </c>
       <c r="BW18">
-        <v>6.8952</v>
+        <v>2.1972</v>
       </c>
       <c r="BX18">
-        <v>6.0625999999999998</v>
+        <v>5.1299000000000001</v>
       </c>
       <c r="BY18">
-        <v>5.7725999999999997</v>
+        <v>6.1002999999999998</v>
       </c>
       <c r="BZ18">
-        <v>5.8765000000000001</v>
+        <v>5.7202999999999999</v>
       </c>
       <c r="CA18">
-        <v>6.3391000000000002</v>
+        <v>7.2778999999999998</v>
       </c>
       <c r="CB18">
-        <v>6.7771999999999997</v>
+        <v>7.8765999999999998</v>
       </c>
       <c r="CC18">
-        <v>5.0662000000000003</v>
+        <v>3.8067000000000002</v>
       </c>
       <c r="CD18">
-        <v>3.2464</v>
+        <v>0</v>
       </c>
       <c r="CE18">
-        <v>8.1852</v>
+        <v>3.7136</v>
       </c>
       <c r="CF18">
-        <v>2.5306000000000002</v>
+        <v>1.6093999999999999</v>
       </c>
       <c r="CG18">
-        <v>7.1418999999999997</v>
+        <v>6.9207000000000001</v>
       </c>
       <c r="CH18">
-        <v>1.9656</v>
+        <v>4.4659000000000004</v>
       </c>
       <c r="CI18">
-        <v>7.6877000000000004</v>
+        <v>4.0254000000000003</v>
       </c>
       <c r="CJ18">
-        <v>4.7896000000000001</v>
+        <v>4.3819999999999997</v>
       </c>
       <c r="CK18">
-        <v>8.6653000000000002</v>
+        <v>5.5293999999999999</v>
       </c>
       <c r="CL18">
-        <v>7.0603999999999996</v>
+        <v>5.9375</v>
       </c>
       <c r="CM18">
-        <v>6.2675999999999998</v>
+        <v>7.782</v>
       </c>
       <c r="CN18">
-        <v>5.7257999999999996</v>
+        <v>5.0369999999999999</v>
       </c>
       <c r="CO18">
-        <v>3.4670000000000001</v>
+        <v>4.3693999999999997</v>
       </c>
       <c r="CP18">
-        <v>5.6144999999999996</v>
+        <v>3.2957999999999998</v>
       </c>
       <c r="CQ18">
-        <v>7.8581000000000003</v>
+        <v>6.1269</v>
       </c>
       <c r="CR18">
-        <v>7.1422999999999996</v>
+        <v>5.2831999999999999</v>
       </c>
       <c r="CS18">
-        <v>5.6227</v>
+        <v>6.375</v>
       </c>
       <c r="CT18">
         <v>0</v>
       </c>
       <c r="CU18">
-        <v>3.7286999999999999</v>
+        <v>0</v>
       </c>
       <c r="CV18">
-        <v>5.7370000000000001</v>
+        <v>5.2256999999999998</v>
       </c>
       <c r="CW18">
-        <v>2.6423000000000001</v>
+        <v>3.9119999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:101">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>145</v>
+      </c>
+      <c r="B19">
+        <v>0.58979999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:101">
       <c r="A20" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4680,12 +4624,15 @@
     </row>
     <row r="21" spans="1:101">
       <c r="A21" t="s">
-        <v>143</v>
+        <v>145</v>
+      </c>
+      <c r="B21">
+        <v>0.48070000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:101">
       <c r="A22" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4992,10 +4939,13 @@
       <c r="A23" t="s">
         <v>145</v>
       </c>
+      <c r="B23">
+        <v>0.25459999999999999</v>
+      </c>
     </row>
     <row r="24" spans="1:101">
       <c r="A24" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -5300,13 +5250,16 @@
     </row>
     <row r="25" spans="1:101">
       <c r="A25" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+      <c r="B25">
+        <v>0.26429999999999998</v>
       </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" spans="1:101">
       <c r="A26" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -5611,7 +5564,10 @@
     </row>
     <row r="27" spans="1:101">
       <c r="A27" t="s">
-        <v>149</v>
+        <v>145</v>
+      </c>
+      <c r="B27">
+        <v>0.24279999999999999</v>
       </c>
       <c r="H27" s="3"/>
     </row>
@@ -5638,25 +5594,25 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.56810000000000005</v>
+        <v>0.85240000000000005</v>
       </c>
       <c r="I28">
-        <v>2.1545999999999998</v>
+        <v>2.2989000000000002</v>
       </c>
       <c r="J28">
-        <v>-0.49680000000000002</v>
+        <v>-0.74560000000000004</v>
       </c>
       <c r="K28">
-        <v>2.1606000000000001</v>
+        <v>2.1947000000000001</v>
       </c>
       <c r="L28">
-        <v>3.0501999999999998</v>
+        <v>3.4272</v>
       </c>
       <c r="M28">
-        <v>1.6259999999999999</v>
+        <v>3.2898999999999998</v>
       </c>
       <c r="N28">
-        <v>0.4466</v>
+        <v>0.89359999999999995</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -5668,58 +5624,58 @@
         <v>0</v>
       </c>
       <c r="R28">
-        <v>1.2652000000000001</v>
+        <v>1.5188999999999999</v>
       </c>
       <c r="S28">
-        <v>1.2519</v>
+        <v>2.5148000000000001</v>
       </c>
       <c r="T28">
-        <v>3.0219999999999998</v>
+        <v>3.7795000000000001</v>
       </c>
       <c r="U28">
         <v>0</v>
       </c>
       <c r="V28">
-        <v>2.3824999999999998</v>
+        <v>2.9805999999999999</v>
       </c>
       <c r="W28">
-        <v>1.4952000000000001</v>
+        <v>1.579</v>
       </c>
       <c r="X28">
-        <v>1.1594</v>
+        <v>1.2759</v>
       </c>
       <c r="Y28">
-        <v>0.97899999999999998</v>
+        <v>1.0770999999999999</v>
       </c>
       <c r="Z28">
-        <v>3.0388999999999999</v>
+        <v>3.1202999999999999</v>
       </c>
       <c r="AA28">
-        <v>3.2355</v>
+        <v>3.8896999999999999</v>
       </c>
       <c r="AB28">
-        <v>2.7046999999999999</v>
+        <v>2.7458999999999998</v>
       </c>
       <c r="AC28">
-        <v>0.47349999999999998</v>
+        <v>0.95189999999999997</v>
       </c>
       <c r="AD28">
         <v>0</v>
       </c>
       <c r="AE28">
-        <v>3.7751999999999999</v>
+        <v>3.8311999999999999</v>
       </c>
       <c r="AF28">
-        <v>3.3174000000000001</v>
+        <v>4.4309000000000003</v>
       </c>
       <c r="AG28">
-        <v>2.1576</v>
+        <v>2.2222</v>
       </c>
       <c r="AH28">
-        <v>2.4419</v>
+        <v>2.4695</v>
       </c>
       <c r="AI28">
-        <v>3.2625999999999999</v>
+        <v>3.6271</v>
       </c>
       <c r="AJ28">
         <v>0</v>
@@ -5728,16 +5684,16 @@
         <v>0</v>
       </c>
       <c r="AL28">
-        <v>4.5244</v>
+        <v>4.5656999999999996</v>
       </c>
       <c r="AM28">
-        <v>2.5451000000000001</v>
+        <v>2.7277999999999998</v>
       </c>
       <c r="AN28">
-        <v>1.7679</v>
+        <v>2.0213999999999999</v>
       </c>
       <c r="AO28">
-        <v>3.6802000000000001</v>
+        <v>3.7412999999999998</v>
       </c>
       <c r="AP28">
         <v>0</v>
@@ -5770,750 +5726,1694 @@
         <v>0</v>
       </c>
       <c r="AZ28">
-        <v>2.4693000000000001</v>
+        <v>2.5741999999999998</v>
       </c>
       <c r="BA28">
-        <v>2.3955000000000002</v>
+        <v>2.5872999999999999</v>
       </c>
       <c r="BB28">
-        <v>4.5454999999999997</v>
+        <v>4.5492999999999997</v>
       </c>
       <c r="BC28">
-        <v>4.4793000000000003</v>
+        <v>4.6468999999999996</v>
       </c>
       <c r="BD28">
-        <v>4.0288000000000004</v>
+        <v>4.2346000000000004</v>
       </c>
       <c r="BE28">
-        <v>0.42399999999999999</v>
+        <v>0.45760000000000001</v>
       </c>
       <c r="BF28">
-        <v>3.1089000000000002</v>
+        <v>3.1343000000000001</v>
       </c>
       <c r="BG28">
-        <v>1.8643000000000001</v>
+        <v>2.1335000000000002</v>
       </c>
       <c r="BH28">
-        <v>4.2603</v>
+        <v>4.9104999999999999</v>
       </c>
       <c r="BI28">
-        <v>4.8613</v>
+        <v>4.9482999999999997</v>
       </c>
       <c r="BJ28">
-        <v>4.5526</v>
+        <v>7.0086000000000004</v>
       </c>
       <c r="BK28">
-        <v>2.9001000000000001</v>
+        <v>4.3574999999999999</v>
       </c>
       <c r="BL28">
         <v>0</v>
       </c>
       <c r="BM28">
-        <v>3.6943999999999999</v>
+        <v>4.3503999999999996</v>
       </c>
       <c r="BN28">
         <v>0</v>
       </c>
       <c r="BO28">
-        <v>2.6061999999999999</v>
+        <v>2.9338000000000002</v>
       </c>
       <c r="BP28">
-        <v>3.9695</v>
+        <v>4.3102999999999998</v>
       </c>
       <c r="BQ28">
-        <v>5.8246000000000002</v>
+        <v>5.8597999999999999</v>
       </c>
       <c r="BR28">
-        <v>5.5259999999999998</v>
+        <v>5.5396000000000001</v>
       </c>
       <c r="BS28">
-        <v>5.1707999999999998</v>
+        <v>5.2389999999999999</v>
       </c>
       <c r="BT28">
-        <v>7.1577999999999999</v>
+        <v>7.2016</v>
       </c>
       <c r="BU28">
-        <v>6.3151000000000002</v>
+        <v>6.6782000000000004</v>
       </c>
       <c r="BV28">
-        <v>3.7423999999999999</v>
+        <v>3.7759999999999998</v>
       </c>
       <c r="BW28">
-        <v>6.1790000000000003</v>
+        <v>6.8952</v>
       </c>
       <c r="BX28">
-        <v>6.0210999999999997</v>
+        <v>6.0625999999999998</v>
       </c>
       <c r="BY28">
-        <v>5.7568999999999999</v>
+        <v>5.7725999999999997</v>
       </c>
       <c r="BZ28">
-        <v>5.8535000000000004</v>
+        <v>5.8765000000000001</v>
       </c>
       <c r="CA28">
-        <v>6.3334999999999999</v>
+        <v>6.3391000000000002</v>
       </c>
       <c r="CB28">
-        <v>6.7737999999999996</v>
+        <v>6.7771999999999997</v>
       </c>
       <c r="CC28">
-        <v>4.9512</v>
+        <v>5.0662000000000003</v>
       </c>
       <c r="CD28">
-        <v>1.6052999999999999</v>
+        <v>3.2464</v>
       </c>
       <c r="CE28">
-        <v>7.9668000000000001</v>
+        <v>8.1852</v>
       </c>
       <c r="CF28">
-        <v>2.0882000000000001</v>
+        <v>2.5306000000000002</v>
       </c>
       <c r="CG28">
-        <v>7.1308999999999996</v>
+        <v>7.1418999999999997</v>
       </c>
       <c r="CH28">
-        <v>1.9388000000000001</v>
+        <v>1.9656</v>
       </c>
       <c r="CI28">
-        <v>7.5433000000000003</v>
+        <v>7.6877000000000004</v>
       </c>
       <c r="CJ28">
-        <v>4.7282999999999999</v>
+        <v>4.7896000000000001</v>
       </c>
       <c r="CK28">
-        <v>8.6205999999999996</v>
+        <v>8.6653000000000002</v>
       </c>
       <c r="CL28">
-        <v>7.0385999999999997</v>
+        <v>7.0603999999999996</v>
       </c>
       <c r="CM28">
-        <v>6.2633999999999999</v>
+        <v>6.2675999999999998</v>
       </c>
       <c r="CN28">
-        <v>5.6856</v>
+        <v>5.7257999999999996</v>
       </c>
       <c r="CO28">
-        <v>3.4220999999999999</v>
+        <v>3.4670000000000001</v>
       </c>
       <c r="CP28">
-        <v>5.4053000000000004</v>
+        <v>5.6144999999999996</v>
       </c>
       <c r="CQ28">
-        <v>7.8371000000000004</v>
+        <v>7.8581000000000003</v>
       </c>
       <c r="CR28">
-        <v>7.0940000000000003</v>
+        <v>7.1422999999999996</v>
       </c>
       <c r="CS28">
-        <v>5.6105</v>
+        <v>5.6227</v>
       </c>
       <c r="CT28">
         <v>0</v>
       </c>
       <c r="CU28">
-        <v>1.8628</v>
+        <v>3.7286999999999999</v>
       </c>
       <c r="CV28">
-        <v>5.7030000000000003</v>
+        <v>5.7370000000000001</v>
       </c>
       <c r="CW28">
-        <v>2.5901000000000001</v>
+        <v>2.6423000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:101">
       <c r="A29" t="s">
-        <v>151</v>
+        <v>145</v>
+      </c>
+      <c r="B29">
+        <v>0.65680000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:101">
       <c r="A30" s="3" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="B30">
-        <v>1.4525999999999999</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0.3352</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>1.5387999999999999</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>1.5508999999999999</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.83689999999999998</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>3.3963999999999999</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>1.2524</v>
+        <v>0.56810000000000005</v>
       </c>
       <c r="I30">
-        <v>2.3589000000000002</v>
+        <v>2.1545999999999998</v>
       </c>
       <c r="J30">
-        <v>-0.34370000000000001</v>
+        <v>-0.49680000000000002</v>
       </c>
       <c r="K30">
-        <v>2.2084000000000001</v>
+        <v>2.1606000000000001</v>
       </c>
       <c r="L30">
-        <v>3.4914000000000001</v>
+        <v>3.0501999999999998</v>
       </c>
       <c r="M30">
-        <v>3.9277000000000002</v>
+        <v>1.6259999999999999</v>
       </c>
       <c r="N30">
-        <v>1.5785</v>
+        <v>0.4466</v>
       </c>
       <c r="O30">
-        <v>2.0367999999999999</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>1.5145</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>4.0503</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>1.6964999999999999</v>
+        <v>1.2652000000000001</v>
       </c>
       <c r="S30">
-        <v>3.1806000000000001</v>
+        <v>1.2519</v>
       </c>
       <c r="T30">
-        <v>3.9857</v>
+        <v>3.0219999999999998</v>
       </c>
       <c r="U30">
-        <v>0.32229999999999998</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>3.1920999999999999</v>
+        <v>2.3824999999999998</v>
       </c>
       <c r="W30">
-        <v>1.6297999999999999</v>
+        <v>1.4952000000000001</v>
       </c>
       <c r="X30">
-        <v>1.3676999999999999</v>
+        <v>1.1594</v>
       </c>
       <c r="Y30">
-        <v>1.1694</v>
+        <v>0.97899999999999998</v>
       </c>
       <c r="Z30">
-        <v>3.1425999999999998</v>
+        <v>3.0388999999999999</v>
       </c>
       <c r="AA30">
-        <v>4.0496999999999996</v>
+        <v>3.2355</v>
       </c>
       <c r="AB30">
-        <v>2.7562000000000002</v>
+        <v>2.7046999999999999</v>
       </c>
       <c r="AC30">
-        <v>1.6342000000000001</v>
+        <v>0.47349999999999998</v>
       </c>
       <c r="AD30">
-        <v>0.64239999999999997</v>
+        <v>0</v>
       </c>
       <c r="AE30">
-        <v>3.8399000000000001</v>
+        <v>3.7751999999999999</v>
       </c>
       <c r="AF30">
-        <v>4.6928000000000001</v>
+        <v>3.3174000000000001</v>
       </c>
       <c r="AG30">
-        <v>2.2402000000000002</v>
+        <v>2.1576</v>
       </c>
       <c r="AH30">
-        <v>2.4750999999999999</v>
+        <v>2.4419</v>
       </c>
       <c r="AI30">
-        <v>3.7223999999999999</v>
+        <v>3.2625999999999999</v>
       </c>
       <c r="AJ30">
-        <v>0.47689999999999999</v>
+        <v>0</v>
       </c>
       <c r="AK30">
-        <v>2.8010000000000002</v>
+        <v>0</v>
       </c>
       <c r="AL30">
-        <v>4.57</v>
+        <v>4.5244</v>
       </c>
       <c r="AM30">
-        <v>2.7915000000000001</v>
+        <v>2.5451000000000001</v>
       </c>
       <c r="AN30">
-        <v>2.1497999999999999</v>
+        <v>1.7679</v>
       </c>
       <c r="AO30">
-        <v>3.7524000000000002</v>
+        <v>3.6802000000000001</v>
       </c>
       <c r="AP30">
-        <v>3.9356</v>
+        <v>0</v>
       </c>
       <c r="AQ30">
-        <v>-0.40200000000000002</v>
+        <v>0</v>
       </c>
       <c r="AR30">
-        <v>6.0072000000000001</v>
+        <v>0</v>
       </c>
       <c r="AS30">
-        <v>3.5387</v>
+        <v>0</v>
       </c>
       <c r="AT30">
-        <v>3.8671000000000002</v>
+        <v>0</v>
       </c>
       <c r="AU30">
-        <v>1.0993999999999999</v>
+        <v>0</v>
       </c>
       <c r="AV30">
-        <v>5.0389999999999997</v>
+        <v>0</v>
       </c>
       <c r="AW30">
-        <v>3.0253000000000001</v>
+        <v>0</v>
       </c>
       <c r="AX30">
-        <v>1.7943</v>
+        <v>0</v>
       </c>
       <c r="AY30">
-        <v>3.3509000000000002</v>
+        <v>0</v>
       </c>
       <c r="AZ30">
-        <v>2.5920000000000001</v>
+        <v>2.4693000000000001</v>
       </c>
       <c r="BA30">
-        <v>2.6478999999999999</v>
+        <v>2.3955000000000002</v>
       </c>
       <c r="BB30">
-        <v>4.5484999999999998</v>
+        <v>4.5454999999999997</v>
       </c>
       <c r="BC30">
-        <v>4.6699000000000002</v>
+        <v>4.4793000000000003</v>
       </c>
       <c r="BD30">
-        <v>4.2716000000000003</v>
+        <v>4.0288000000000004</v>
       </c>
       <c r="BE30">
-        <v>0.52980000000000005</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="BF30">
-        <v>3.1396000000000002</v>
+        <v>3.1089000000000002</v>
       </c>
       <c r="BG30">
-        <v>2.2612000000000001</v>
+        <v>1.8643000000000001</v>
       </c>
       <c r="BH30">
-        <v>4.9781000000000004</v>
+        <v>4.2603</v>
       </c>
       <c r="BI30">
-        <v>4.9577999999999998</v>
+        <v>4.8613</v>
       </c>
       <c r="BJ30">
-        <v>7.2436999999999996</v>
+        <v>4.5526</v>
       </c>
       <c r="BK30">
-        <v>4.7317999999999998</v>
+        <v>2.9001000000000001</v>
       </c>
       <c r="BL30">
-        <v>4.1626000000000003</v>
+        <v>0</v>
       </c>
       <c r="BM30">
-        <v>4.4775</v>
+        <v>3.6943999999999999</v>
       </c>
       <c r="BN30">
-        <v>0.60750000000000004</v>
+        <v>0</v>
       </c>
       <c r="BO30">
-        <v>3.0442</v>
+        <v>2.6061999999999999</v>
       </c>
       <c r="BP30">
-        <v>4.3644999999999996</v>
+        <v>3.9695</v>
       </c>
       <c r="BQ30">
-        <v>5.8586</v>
+        <v>5.8246000000000002</v>
       </c>
       <c r="BR30">
-        <v>5.5373999999999999</v>
+        <v>5.5259999999999998</v>
       </c>
       <c r="BS30">
-        <v>5.2390999999999996</v>
+        <v>5.1707999999999998</v>
       </c>
       <c r="BT30">
-        <v>7.194</v>
+        <v>7.1577999999999999</v>
       </c>
       <c r="BU30">
-        <v>6.6976000000000004</v>
+        <v>6.3151000000000002</v>
       </c>
       <c r="BV30">
-        <v>3.7795000000000001</v>
+        <v>3.7423999999999999</v>
       </c>
       <c r="BW30">
-        <v>6.9489999999999998</v>
+        <v>6.1790000000000003</v>
       </c>
       <c r="BX30">
-        <v>6.0601000000000003</v>
+        <v>6.0210999999999997</v>
       </c>
       <c r="BY30">
-        <v>5.7706</v>
+        <v>5.7568999999999999</v>
       </c>
       <c r="BZ30">
-        <v>5.8741000000000003</v>
+        <v>5.8535000000000004</v>
       </c>
       <c r="CA30">
-        <v>6.3367000000000004</v>
+        <v>6.3334999999999999</v>
       </c>
       <c r="CB30">
-        <v>6.7735000000000003</v>
+        <v>6.7737999999999996</v>
       </c>
       <c r="CC30">
-        <v>5.0787000000000004</v>
+        <v>4.9512</v>
       </c>
       <c r="CD30">
-        <v>3.9016000000000002</v>
+        <v>1.6052999999999999</v>
       </c>
       <c r="CE30">
-        <v>8.1640999999999995</v>
+        <v>7.9668000000000001</v>
       </c>
       <c r="CF30">
-        <v>2.6934999999999998</v>
+        <v>2.0882000000000001</v>
       </c>
       <c r="CG30">
-        <v>7.1368999999999998</v>
+        <v>7.1308999999999996</v>
       </c>
       <c r="CH30">
-        <v>1.9752000000000001</v>
+        <v>1.9388000000000001</v>
       </c>
       <c r="CI30">
-        <v>7.6741999999999999</v>
+        <v>7.5433000000000003</v>
       </c>
       <c r="CJ30">
-        <v>4.7961</v>
+        <v>4.7282999999999999</v>
       </c>
       <c r="CK30">
-        <v>8.6427999999999994</v>
+        <v>8.6205999999999996</v>
       </c>
       <c r="CL30">
-        <v>7.0541</v>
+        <v>7.0385999999999997</v>
       </c>
       <c r="CM30">
-        <v>6.2652000000000001</v>
+        <v>6.2633999999999999</v>
       </c>
       <c r="CN30">
-        <v>5.7252999999999998</v>
+        <v>5.6856</v>
       </c>
       <c r="CO30">
-        <v>3.476</v>
+        <v>3.4220999999999999</v>
       </c>
       <c r="CP30">
-        <v>5.6252000000000004</v>
+        <v>5.4053000000000004</v>
       </c>
       <c r="CQ30">
-        <v>7.8487999999999998</v>
+        <v>7.8371000000000004</v>
       </c>
       <c r="CR30">
-        <v>7.1300999999999997</v>
+        <v>7.0940000000000003</v>
       </c>
       <c r="CS30">
-        <v>5.6208</v>
+        <v>5.6105</v>
       </c>
       <c r="CT30">
-        <v>3.1637</v>
+        <v>0</v>
       </c>
       <c r="CU30">
-        <v>4.3876999999999997</v>
+        <v>1.8628</v>
       </c>
       <c r="CV30">
-        <v>5.7361000000000004</v>
+        <v>5.7030000000000003</v>
       </c>
       <c r="CW30">
-        <v>2.6595</v>
+        <v>2.5901000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:101">
       <c r="A31" t="s">
-        <v>153</v>
-      </c>
-      <c r="H31" s="3"/>
+        <v>145</v>
+      </c>
+      <c r="B31">
+        <v>0.65810000000000002</v>
+      </c>
     </row>
     <row r="32" spans="1:101">
-      <c r="H32" s="3"/>
+      <c r="A32" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32">
+        <v>1.4525999999999999</v>
+      </c>
+      <c r="C32">
+        <v>0.3352</v>
+      </c>
+      <c r="D32">
+        <v>1.5387999999999999</v>
+      </c>
+      <c r="E32">
+        <v>1.5508999999999999</v>
+      </c>
+      <c r="F32">
+        <v>0.83689999999999998</v>
+      </c>
+      <c r="G32">
+        <v>3.3963999999999999</v>
+      </c>
+      <c r="H32">
+        <v>1.2524</v>
+      </c>
+      <c r="I32">
+        <v>2.3589000000000002</v>
+      </c>
+      <c r="J32">
+        <v>-0.34370000000000001</v>
+      </c>
+      <c r="K32">
+        <v>2.2084000000000001</v>
+      </c>
+      <c r="L32">
+        <v>3.4914000000000001</v>
+      </c>
+      <c r="M32">
+        <v>3.9277000000000002</v>
+      </c>
+      <c r="N32">
+        <v>1.5785</v>
+      </c>
+      <c r="O32">
+        <v>2.0367999999999999</v>
+      </c>
+      <c r="P32">
+        <v>1.5145</v>
+      </c>
+      <c r="Q32">
+        <v>4.0503</v>
+      </c>
+      <c r="R32">
+        <v>1.6964999999999999</v>
+      </c>
+      <c r="S32">
+        <v>3.1806000000000001</v>
+      </c>
+      <c r="T32">
+        <v>3.9857</v>
+      </c>
+      <c r="U32">
+        <v>0.32229999999999998</v>
+      </c>
+      <c r="V32">
+        <v>3.1920999999999999</v>
+      </c>
+      <c r="W32">
+        <v>1.6297999999999999</v>
+      </c>
+      <c r="X32">
+        <v>1.3676999999999999</v>
+      </c>
+      <c r="Y32">
+        <v>1.1694</v>
+      </c>
+      <c r="Z32">
+        <v>3.1425999999999998</v>
+      </c>
+      <c r="AA32">
+        <v>4.0496999999999996</v>
+      </c>
+      <c r="AB32">
+        <v>2.7562000000000002</v>
+      </c>
+      <c r="AC32">
+        <v>1.6342000000000001</v>
+      </c>
+      <c r="AD32">
+        <v>0.64239999999999997</v>
+      </c>
+      <c r="AE32">
+        <v>3.8399000000000001</v>
+      </c>
+      <c r="AF32">
+        <v>4.6928000000000001</v>
+      </c>
+      <c r="AG32">
+        <v>2.2402000000000002</v>
+      </c>
+      <c r="AH32">
+        <v>2.4750999999999999</v>
+      </c>
+      <c r="AI32">
+        <v>3.7223999999999999</v>
+      </c>
+      <c r="AJ32">
+        <v>0.47689999999999999</v>
+      </c>
+      <c r="AK32">
+        <v>2.8010000000000002</v>
+      </c>
+      <c r="AL32">
+        <v>4.57</v>
+      </c>
+      <c r="AM32">
+        <v>2.7915000000000001</v>
+      </c>
+      <c r="AN32">
+        <v>2.1497999999999999</v>
+      </c>
+      <c r="AO32">
+        <v>3.7524000000000002</v>
+      </c>
+      <c r="AP32">
+        <v>3.9356</v>
+      </c>
+      <c r="AQ32">
+        <v>-0.40200000000000002</v>
+      </c>
+      <c r="AR32">
+        <v>6.0072000000000001</v>
+      </c>
+      <c r="AS32">
+        <v>3.5387</v>
+      </c>
+      <c r="AT32">
+        <v>3.8671000000000002</v>
+      </c>
+      <c r="AU32">
+        <v>1.0993999999999999</v>
+      </c>
+      <c r="AV32">
+        <v>5.0389999999999997</v>
+      </c>
+      <c r="AW32">
+        <v>3.0253000000000001</v>
+      </c>
+      <c r="AX32">
+        <v>1.7943</v>
+      </c>
+      <c r="AY32">
+        <v>3.3509000000000002</v>
+      </c>
+      <c r="AZ32">
+        <v>2.5920000000000001</v>
+      </c>
+      <c r="BA32">
+        <v>2.6478999999999999</v>
+      </c>
+      <c r="BB32">
+        <v>4.5484999999999998</v>
+      </c>
+      <c r="BC32">
+        <v>4.6699000000000002</v>
+      </c>
+      <c r="BD32">
+        <v>4.2716000000000003</v>
+      </c>
+      <c r="BE32">
+        <v>0.52980000000000005</v>
+      </c>
+      <c r="BF32">
+        <v>3.1396000000000002</v>
+      </c>
+      <c r="BG32">
+        <v>2.2612000000000001</v>
+      </c>
+      <c r="BH32">
+        <v>4.9781000000000004</v>
+      </c>
+      <c r="BI32">
+        <v>4.9577999999999998</v>
+      </c>
+      <c r="BJ32">
+        <v>7.2436999999999996</v>
+      </c>
+      <c r="BK32">
+        <v>4.7317999999999998</v>
+      </c>
+      <c r="BL32">
+        <v>4.1626000000000003</v>
+      </c>
+      <c r="BM32">
+        <v>4.4775</v>
+      </c>
+      <c r="BN32">
+        <v>0.60750000000000004</v>
+      </c>
+      <c r="BO32">
+        <v>3.0442</v>
+      </c>
+      <c r="BP32">
+        <v>4.3644999999999996</v>
+      </c>
+      <c r="BQ32">
+        <v>5.8586</v>
+      </c>
+      <c r="BR32">
+        <v>5.5373999999999999</v>
+      </c>
+      <c r="BS32">
+        <v>5.2390999999999996</v>
+      </c>
+      <c r="BT32">
+        <v>7.194</v>
+      </c>
+      <c r="BU32">
+        <v>6.6976000000000004</v>
+      </c>
+      <c r="BV32">
+        <v>3.7795000000000001</v>
+      </c>
+      <c r="BW32">
+        <v>6.9489999999999998</v>
+      </c>
+      <c r="BX32">
+        <v>6.0601000000000003</v>
+      </c>
+      <c r="BY32">
+        <v>5.7706</v>
+      </c>
+      <c r="BZ32">
+        <v>5.8741000000000003</v>
+      </c>
+      <c r="CA32">
+        <v>6.3367000000000004</v>
+      </c>
+      <c r="CB32">
+        <v>6.7735000000000003</v>
+      </c>
+      <c r="CC32">
+        <v>5.0787000000000004</v>
+      </c>
+      <c r="CD32">
+        <v>3.9016000000000002</v>
+      </c>
+      <c r="CE32">
+        <v>8.1640999999999995</v>
+      </c>
+      <c r="CF32">
+        <v>2.6934999999999998</v>
+      </c>
+      <c r="CG32">
+        <v>7.1368999999999998</v>
+      </c>
+      <c r="CH32">
+        <v>1.9752000000000001</v>
+      </c>
+      <c r="CI32">
+        <v>7.6741999999999999</v>
+      </c>
+      <c r="CJ32">
+        <v>4.7961</v>
+      </c>
+      <c r="CK32">
+        <v>8.6427999999999994</v>
+      </c>
+      <c r="CL32">
+        <v>7.0541</v>
+      </c>
+      <c r="CM32">
+        <v>6.2652000000000001</v>
+      </c>
+      <c r="CN32">
+        <v>5.7252999999999998</v>
+      </c>
+      <c r="CO32">
+        <v>3.476</v>
+      </c>
+      <c r="CP32">
+        <v>5.6252000000000004</v>
+      </c>
+      <c r="CQ32">
+        <v>7.8487999999999998</v>
+      </c>
+      <c r="CR32">
+        <v>7.1300999999999997</v>
+      </c>
+      <c r="CS32">
+        <v>5.6208</v>
+      </c>
+      <c r="CT32">
+        <v>3.1637</v>
+      </c>
+      <c r="CU32">
+        <v>4.3876999999999997</v>
+      </c>
+      <c r="CV32">
+        <v>5.7361000000000004</v>
+      </c>
+      <c r="CW32">
+        <v>2.6595</v>
+      </c>
     </row>
-    <row r="33" spans="8:8">
+    <row r="33" spans="1:101">
+      <c r="A33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33">
+        <v>0.55969999999999998</v>
+      </c>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="8:8">
-      <c r="H34" s="3"/>
+    <row r="34" spans="1:101">
+      <c r="A34" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>8.4599999999999995E-2</v>
+      </c>
+      <c r="I34">
+        <v>0.2283</v>
+      </c>
+      <c r="J34">
+        <v>-9.2700000000000005E-2</v>
+      </c>
+      <c r="K34">
+        <v>0.2462</v>
+      </c>
+      <c r="L34">
+        <v>0.42309999999999998</v>
+      </c>
+      <c r="M34">
+        <v>0.3322</v>
+      </c>
+      <c r="N34">
+        <v>9.1700000000000004E-2</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0.15459999999999999</v>
+      </c>
+      <c r="S34">
+        <v>0.254</v>
+      </c>
+      <c r="T34">
+        <v>0.33560000000000001</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0.2954</v>
+      </c>
+      <c r="W34">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="X34">
+        <v>0.13039999999999999</v>
+      </c>
+      <c r="Y34">
+        <v>0.1115</v>
+      </c>
+      <c r="Z34">
+        <v>0.3266</v>
+      </c>
+      <c r="AA34">
+        <v>0.39279999999999998</v>
+      </c>
+      <c r="AB34">
+        <v>0.35630000000000001</v>
+      </c>
+      <c r="AC34">
+        <v>9.0399999999999994E-2</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0.3967</v>
+      </c>
+      <c r="AF34">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="AG34">
+        <v>0.3196</v>
+      </c>
+      <c r="AH34">
+        <v>0.35520000000000002</v>
+      </c>
+      <c r="AI34">
+        <v>0.3533</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0.46110000000000001</v>
+      </c>
+      <c r="AM34">
+        <v>0.27079999999999999</v>
+      </c>
+      <c r="AN34">
+        <v>0.21160000000000001</v>
+      </c>
+      <c r="AO34">
+        <v>0.37419999999999998</v>
+      </c>
+      <c r="AP34">
+        <v>0</v>
+      </c>
+      <c r="AQ34">
+        <v>0</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>0</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>0</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>0</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>0</v>
+      </c>
+      <c r="AZ34">
+        <v>0.37019999999999997</v>
+      </c>
+      <c r="BA34">
+        <v>0.3216</v>
+      </c>
+      <c r="BB34">
+        <v>0.59030000000000005</v>
+      </c>
+      <c r="BC34">
+        <v>0.43340000000000001</v>
+      </c>
+      <c r="BD34">
+        <v>0.44319999999999998</v>
+      </c>
+      <c r="BE34">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="BF34">
+        <v>0.33450000000000002</v>
+      </c>
+      <c r="BG34">
+        <v>0.2278</v>
+      </c>
+      <c r="BH34">
+        <v>0.52429999999999999</v>
+      </c>
+      <c r="BI34">
+        <v>0.49130000000000001</v>
+      </c>
+      <c r="BJ34">
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="BK34">
+        <v>0.36859999999999998</v>
+      </c>
+      <c r="BL34">
+        <v>0</v>
+      </c>
+      <c r="BM34">
+        <v>0.43640000000000001</v>
+      </c>
+      <c r="BN34">
+        <v>0</v>
+      </c>
+      <c r="BO34">
+        <v>0.2908</v>
+      </c>
+      <c r="BP34">
+        <v>0.41339999999999999</v>
+      </c>
+      <c r="BQ34">
+        <v>0.58079999999999998</v>
+      </c>
+      <c r="BR34">
+        <v>0.55410000000000004</v>
+      </c>
+      <c r="BS34">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="BT34">
+        <v>0.67930000000000001</v>
+      </c>
+      <c r="BU34">
+        <v>0.5968</v>
+      </c>
+      <c r="BV34">
+        <v>0.4662</v>
+      </c>
+      <c r="BW34">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="BX34">
+        <v>0.62209999999999999</v>
+      </c>
+      <c r="BY34">
+        <v>0.58860000000000001</v>
+      </c>
+      <c r="BZ34">
+        <v>0.62739999999999996</v>
+      </c>
+      <c r="CA34">
+        <v>0.66590000000000005</v>
+      </c>
+      <c r="CB34">
+        <v>0.71619999999999995</v>
+      </c>
+      <c r="CC34">
+        <v>0.503</v>
+      </c>
+      <c r="CD34">
+        <v>0.28179999999999999</v>
+      </c>
+      <c r="CE34">
+        <v>0.69240000000000002</v>
+      </c>
+      <c r="CF34">
+        <v>0.2949</v>
+      </c>
+      <c r="CG34">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="CH34">
+        <v>0.255</v>
+      </c>
+      <c r="CI34">
+        <v>0.65029999999999999</v>
+      </c>
+      <c r="CJ34">
+        <v>0.47560000000000002</v>
+      </c>
+      <c r="CK34">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="CL34">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="CM34">
+        <v>0.66239999999999999</v>
+      </c>
+      <c r="CN34">
+        <v>0.55769999999999997</v>
+      </c>
+      <c r="CO34">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="CP34">
+        <v>0.51180000000000003</v>
+      </c>
+      <c r="CQ34">
+        <v>0.74119999999999997</v>
+      </c>
+      <c r="CR34">
+        <v>0.65110000000000001</v>
+      </c>
+      <c r="CS34">
+        <v>0.57330000000000003</v>
+      </c>
+      <c r="CT34">
+        <v>0</v>
+      </c>
+      <c r="CU34">
+        <v>0.30990000000000001</v>
+      </c>
+      <c r="CV34">
+        <v>0.56859999999999999</v>
+      </c>
+      <c r="CW34">
+        <v>0.28210000000000002</v>
+      </c>
     </row>
-    <row r="35" spans="8:8">
-      <c r="H35" s="3"/>
+    <row r="35" spans="1:101">
+      <c r="A35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B35">
+        <v>0.65949999999999998</v>
+      </c>
     </row>
-    <row r="36" spans="8:8">
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="8:8">
+    <row r="37" spans="1:101">
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="8:8">
-      <c r="H38" s="3"/>
+    <row r="38" spans="1:101">
+      <c r="B38">
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="8:8">
+    <row r="39" spans="1:101">
+      <c r="B39">
+        <v>0</v>
+      </c>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="8:8">
+    <row r="40" spans="1:101">
+      <c r="B40">
+        <v>0</v>
+      </c>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="8:8">
+    <row r="41" spans="1:101">
+      <c r="B41">
+        <v>0</v>
+      </c>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="8:8">
+    <row r="42" spans="1:101">
+      <c r="B42">
+        <v>0</v>
+      </c>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="8:8">
+    <row r="43" spans="1:101">
+      <c r="B43">
+        <v>0</v>
+      </c>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="8:8">
+    <row r="44" spans="1:101">
+      <c r="B44">
+        <v>8.4599999999999995E-2</v>
+      </c>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="8:8">
+    <row r="45" spans="1:101">
+      <c r="B45">
+        <v>0.2283</v>
+      </c>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="8:8">
+    <row r="46" spans="1:101">
+      <c r="B46">
+        <v>-9.2700000000000005E-2</v>
+      </c>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="8:8">
+    <row r="47" spans="1:101">
+      <c r="B47">
+        <v>0.2462</v>
+      </c>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="8:8">
+    <row r="48" spans="1:101">
+      <c r="B48">
+        <v>0.42309999999999998</v>
+      </c>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="8:8">
+    <row r="49" spans="2:8">
+      <c r="B49">
+        <v>0.3322</v>
+      </c>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="8:8">
+    <row r="50" spans="2:8">
+      <c r="B50">
+        <v>9.1700000000000004E-2</v>
+      </c>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="8:8">
+    <row r="51" spans="2:8">
+      <c r="B51">
+        <v>0</v>
+      </c>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="8:8">
+    <row r="52" spans="2:8">
+      <c r="B52">
+        <v>0</v>
+      </c>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="8:8">
+    <row r="53" spans="2:8">
+      <c r="B53">
+        <v>0</v>
+      </c>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="8:8">
+    <row r="54" spans="2:8">
+      <c r="B54">
+        <v>0.15459999999999999</v>
+      </c>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="8:8">
+    <row r="55" spans="2:8">
+      <c r="B55">
+        <v>0.254</v>
+      </c>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="8:8">
+    <row r="56" spans="2:8">
+      <c r="B56">
+        <v>0.33560000000000001</v>
+      </c>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="8:8">
+    <row r="57" spans="2:8">
+      <c r="B57">
+        <v>0</v>
+      </c>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="8:8">
+    <row r="58" spans="2:8">
+      <c r="B58">
+        <v>0.2954</v>
+      </c>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="8:8">
+    <row r="59" spans="2:8">
+      <c r="B59">
+        <v>0.16600000000000001</v>
+      </c>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="8:8">
+    <row r="60" spans="2:8">
+      <c r="B60">
+        <v>0.13039999999999999</v>
+      </c>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="8:8">
+    <row r="61" spans="2:8">
+      <c r="B61">
+        <v>0.1115</v>
+      </c>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="8:8">
+    <row r="62" spans="2:8">
+      <c r="B62">
+        <v>0.3266</v>
+      </c>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="8:8">
+    <row r="63" spans="2:8">
+      <c r="B63">
+        <v>0.39279999999999998</v>
+      </c>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="8:8">
+    <row r="64" spans="2:8">
+      <c r="B64">
+        <v>0.35630000000000001</v>
+      </c>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="8:8">
+    <row r="65" spans="2:8">
+      <c r="B65">
+        <v>9.0399999999999994E-2</v>
+      </c>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="8:8">
+    <row r="66" spans="2:8">
+      <c r="B66">
+        <v>0</v>
+      </c>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="8:8">
+    <row r="67" spans="2:8">
+      <c r="B67">
+        <v>0.3967</v>
+      </c>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="8:8">
+    <row r="68" spans="2:8">
+      <c r="B68">
+        <v>0.38450000000000001</v>
+      </c>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="8:8">
+    <row r="69" spans="2:8">
+      <c r="B69">
+        <v>0.3196</v>
+      </c>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="8:8">
+    <row r="70" spans="2:8">
+      <c r="B70">
+        <v>0.35520000000000002</v>
+      </c>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="8:8">
+    <row r="71" spans="2:8">
+      <c r="B71">
+        <v>0.3533</v>
+      </c>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="8:8">
+    <row r="72" spans="2:8">
+      <c r="B72">
+        <v>0</v>
+      </c>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="8:8">
+    <row r="73" spans="2:8">
+      <c r="B73">
+        <v>0</v>
+      </c>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="8:8">
+    <row r="74" spans="2:8">
+      <c r="B74">
+        <v>0.46110000000000001</v>
+      </c>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="8:8">
+    <row r="75" spans="2:8">
+      <c r="B75">
+        <v>0.27079999999999999</v>
+      </c>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="8:8">
+    <row r="76" spans="2:8">
+      <c r="B76">
+        <v>0.21160000000000001</v>
+      </c>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="8:8">
+    <row r="77" spans="2:8">
+      <c r="B77">
+        <v>0.37419999999999998</v>
+      </c>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="8:8">
+    <row r="78" spans="2:8">
+      <c r="B78">
+        <v>0</v>
+      </c>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="8:8">
+    <row r="79" spans="2:8">
+      <c r="B79">
+        <v>0</v>
+      </c>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="8:8">
+    <row r="80" spans="2:8">
+      <c r="B80">
+        <v>0</v>
+      </c>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="8:8">
+    <row r="81" spans="2:8">
+      <c r="B81">
+        <v>0</v>
+      </c>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="8:8">
+    <row r="82" spans="2:8">
+      <c r="B82">
+        <v>0</v>
+      </c>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="8:8">
+    <row r="83" spans="2:8">
+      <c r="B83">
+        <v>0</v>
+      </c>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="8:8">
+    <row r="84" spans="2:8">
+      <c r="B84">
+        <v>0</v>
+      </c>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="8:8">
+    <row r="85" spans="2:8">
+      <c r="B85">
+        <v>0</v>
+      </c>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="8:8">
+    <row r="86" spans="2:8">
+      <c r="B86">
+        <v>0</v>
+      </c>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="8:8">
+    <row r="87" spans="2:8">
+      <c r="B87">
+        <v>0</v>
+      </c>
       <c r="H87" s="3"/>
     </row>
-    <row r="88" spans="8:8">
+    <row r="88" spans="2:8">
+      <c r="B88">
+        <v>0.37019999999999997</v>
+      </c>
       <c r="H88" s="3"/>
     </row>
-    <row r="89" spans="8:8">
+    <row r="89" spans="2:8">
+      <c r="B89">
+        <v>0.3216</v>
+      </c>
       <c r="H89" s="3"/>
     </row>
-    <row r="90" spans="8:8">
+    <row r="90" spans="2:8">
+      <c r="B90">
+        <v>0.59030000000000005</v>
+      </c>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" spans="8:8">
+    <row r="91" spans="2:8">
+      <c r="B91">
+        <v>0.43340000000000001</v>
+      </c>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="8:8">
+    <row r="92" spans="2:8">
+      <c r="B92">
+        <v>0.44319999999999998</v>
+      </c>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="8:8">
+    <row r="93" spans="2:8">
+      <c r="B93">
+        <v>5.6500000000000002E-2</v>
+      </c>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" spans="8:8">
+    <row r="94" spans="2:8">
+      <c r="B94">
+        <v>0.33450000000000002</v>
+      </c>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="8:8">
+    <row r="95" spans="2:8">
+      <c r="B95">
+        <v>0.2278</v>
+      </c>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="8:8">
+    <row r="96" spans="2:8">
+      <c r="B96">
+        <v>0.52429999999999999</v>
+      </c>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" spans="8:8">
+    <row r="97" spans="2:8">
+      <c r="B97">
+        <v>0.49130000000000001</v>
+      </c>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="8:8">
+    <row r="98" spans="2:8">
+      <c r="B98">
+        <v>0.59289999999999998</v>
+      </c>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="8:8">
+    <row r="99" spans="2:8">
+      <c r="B99">
+        <v>0.36859999999999998</v>
+      </c>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="8:8">
+    <row r="100" spans="2:8">
+      <c r="B100">
+        <v>0</v>
+      </c>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="8:8">
+    <row r="101" spans="2:8">
+      <c r="B101">
+        <v>0.43640000000000001</v>
+      </c>
       <c r="H101" s="3"/>
     </row>
-    <row r="102" spans="8:8">
+    <row r="102" spans="2:8">
+      <c r="B102">
+        <v>0</v>
+      </c>
       <c r="H102" s="3"/>
     </row>
-    <row r="103" spans="8:8">
+    <row r="103" spans="2:8">
+      <c r="B103">
+        <v>0.2908</v>
+      </c>
       <c r="H103" s="3"/>
     </row>
-    <row r="104" spans="8:8">
+    <row r="104" spans="2:8">
+      <c r="B104">
+        <v>0.41339999999999999</v>
+      </c>
       <c r="H104" s="3"/>
     </row>
-    <row r="105" spans="8:8">
+    <row r="105" spans="2:8">
+      <c r="B105">
+        <v>0.58079999999999998</v>
+      </c>
       <c r="H105" s="3"/>
     </row>
-    <row r="106" spans="8:8">
+    <row r="106" spans="2:8">
+      <c r="B106">
+        <v>0.55410000000000004</v>
+      </c>
       <c r="H106" s="3"/>
     </row>
-    <row r="107" spans="8:8">
+    <row r="107" spans="2:8">
+      <c r="B107">
+        <v>0.51100000000000001</v>
+      </c>
       <c r="H107" s="3"/>
     </row>
-    <row r="108" spans="8:8">
+    <row r="108" spans="2:8">
+      <c r="B108">
+        <v>0.67930000000000001</v>
+      </c>
       <c r="H108" s="3"/>
     </row>
-    <row r="109" spans="8:8">
+    <row r="109" spans="2:8">
+      <c r="B109">
+        <v>0.5968</v>
+      </c>
       <c r="H109" s="3"/>
     </row>
-    <row r="110" spans="8:8">
+    <row r="110" spans="2:8">
+      <c r="B110">
+        <v>0.4662</v>
+      </c>
       <c r="H110" s="3"/>
     </row>
-    <row r="111" spans="8:8">
+    <row r="111" spans="2:8">
+      <c r="B111">
+        <v>0.58330000000000004</v>
+      </c>
       <c r="H111" s="3"/>
     </row>
-    <row r="112" spans="8:8">
+    <row r="112" spans="2:8">
+      <c r="B112">
+        <v>0.62209999999999999</v>
+      </c>
       <c r="H112" s="3"/>
     </row>
-    <row r="113" spans="8:8">
+    <row r="113" spans="2:8">
+      <c r="B113">
+        <v>0.58860000000000001</v>
+      </c>
       <c r="H113" s="3"/>
     </row>
-    <row r="114" spans="8:8">
+    <row r="114" spans="2:8">
+      <c r="B114">
+        <v>0.62739999999999996</v>
+      </c>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="8:8">
+    <row r="115" spans="2:8">
+      <c r="B115">
+        <v>0.66590000000000005</v>
+      </c>
       <c r="H115" s="3"/>
     </row>
-    <row r="116" spans="8:8">
+    <row r="116" spans="2:8">
+      <c r="B116">
+        <v>0.71619999999999995</v>
+      </c>
       <c r="H116" s="3"/>
     </row>
-    <row r="117" spans="8:8">
+    <row r="117" spans="2:8">
+      <c r="B117">
+        <v>0.503</v>
+      </c>
       <c r="H117" s="3"/>
     </row>
-    <row r="118" spans="8:8">
+    <row r="118" spans="2:8">
+      <c r="B118">
+        <v>0.28179999999999999</v>
+      </c>
       <c r="H118" s="3"/>
     </row>
-    <row r="119" spans="8:8">
+    <row r="119" spans="2:8">
+      <c r="B119">
+        <v>0.69240000000000002</v>
+      </c>
       <c r="H119" s="3"/>
     </row>
-    <row r="120" spans="8:8">
+    <row r="120" spans="2:8">
+      <c r="B120">
+        <v>0.2949</v>
+      </c>
       <c r="H120" s="3"/>
     </row>
-    <row r="121" spans="8:8">
+    <row r="121" spans="2:8">
+      <c r="B121">
+        <v>0.76249999999999996</v>
+      </c>
       <c r="H121" s="3"/>
     </row>
-    <row r="122" spans="8:8">
+    <row r="122" spans="2:8">
+      <c r="B122">
+        <v>0.255</v>
+      </c>
       <c r="H122" s="3"/>
     </row>
-    <row r="123" spans="8:8">
+    <row r="123" spans="2:8">
+      <c r="B123">
+        <v>0.65029999999999999</v>
+      </c>
       <c r="H123" s="3"/>
     </row>
-    <row r="124" spans="8:8">
+    <row r="124" spans="2:8">
+      <c r="B124">
+        <v>0.47560000000000002</v>
+      </c>
       <c r="H124" s="3"/>
+    </row>
+    <row r="125" spans="2:8">
+      <c r="B125">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="H125" s="3"/>
+    </row>
+    <row r="126" spans="2:8">
+      <c r="B126">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="H126" s="3"/>
+    </row>
+    <row r="127" spans="2:8">
+      <c r="B127">
+        <v>0.66239999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8">
+      <c r="B128">
+        <v>0.55769999999999997</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129">
+        <v>0.35299999999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130">
+        <v>0.51180000000000003</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131">
+        <v>0.74119999999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132">
+        <v>0.65110000000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133">
+        <v>0.57330000000000003</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135">
+        <v>0.30990000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136">
+        <v>0.56859999999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137">
+        <v>0.28210000000000002</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/experiment/results/experiment_1/results_zscored.xlsx
+++ b/experiment/results/experiment_1/results_zscored.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="1220" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="2280" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
@@ -526,8 +526,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="175">
+  <cellStyleXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -711,7 +717,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="175">
+  <cellStyles count="181">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -799,6 +805,9 @@
     <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -886,6 +895,9 @@
     <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1218,7 +1230,7 @@
   <dimension ref="A1:CY137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:CW34"/>
+      <selection activeCell="B5" sqref="B5:CW5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/experiment/results/experiment_1/results_zscored.xlsx
+++ b/experiment/results/experiment_1/results_zscored.xlsx
@@ -526,8 +526,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="181">
+  <cellStyleXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -717,7 +727,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="181">
+  <cellStyles count="191">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -808,6 +818,11 @@
     <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -898,6 +913,11 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1230,7 +1250,7 @@
   <dimension ref="A1:CY137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:CW5"/>
+      <selection activeCell="E38" sqref="E38:E137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6843,10 +6863,22 @@
       <c r="B38">
         <v>0</v>
       </c>
+      <c r="D38" s="2">
+        <v>-9.2530131000000002E-2</v>
+      </c>
+      <c r="E38">
+        <v>-4.0070613199999973E-2</v>
+      </c>
     </row>
     <row r="39" spans="1:101">
       <c r="B39">
         <v>0</v>
+      </c>
+      <c r="D39" s="2">
+        <v>-0.18172260000000001</v>
+      </c>
+      <c r="E39">
+        <v>-0.2882210275199999</v>
       </c>
       <c r="H39" s="3"/>
     </row>
@@ -6854,23 +6886,47 @@
       <c r="B40">
         <v>0</v>
       </c>
+      <c r="D40" s="2">
+        <v>1.3974599000000001E-2</v>
+      </c>
+      <c r="E40">
+        <v>0.19359539844000007</v>
+      </c>
       <c r="H40" s="3"/>
     </row>
     <row r="41" spans="1:101">
       <c r="B41">
         <v>0</v>
       </c>
+      <c r="D41" s="2">
+        <v>-0.83595362299999998</v>
+      </c>
+      <c r="E41">
+        <v>-0.5130228748800002</v>
+      </c>
       <c r="H41" s="3"/>
     </row>
     <row r="42" spans="1:101">
       <c r="B42">
         <v>0</v>
       </c>
+      <c r="D42" s="2">
+        <v>-1.036005522</v>
+      </c>
+      <c r="E42">
+        <v>-0.84902099536000009</v>
+      </c>
       <c r="H42" s="3"/>
     </row>
     <row r="43" spans="1:101">
       <c r="B43">
         <v>0</v>
+      </c>
+      <c r="D43" s="2">
+        <v>-1.3019126519999999</v>
+      </c>
+      <c r="E43">
+        <v>-1.2576515648</v>
       </c>
       <c r="H43" s="3"/>
     </row>
@@ -6878,59 +6934,119 @@
       <c r="B44">
         <v>8.4599999999999995E-2</v>
       </c>
+      <c r="D44" s="2">
+        <v>-0.55706225099999995</v>
+      </c>
+      <c r="E44">
+        <v>-0.34793385052000014</v>
+      </c>
       <c r="H44" s="3"/>
     </row>
     <row r="45" spans="1:101">
       <c r="B45">
         <v>0.2283</v>
       </c>
+      <c r="D45" s="2">
+        <v>-1.031302905</v>
+      </c>
+      <c r="E45">
+        <v>-0.72522446235999993</v>
+      </c>
       <c r="H45" s="3"/>
     </row>
     <row r="46" spans="1:101">
       <c r="B46">
         <v>-9.2700000000000005E-2</v>
       </c>
+      <c r="D46" s="2">
+        <v>-1.510896375</v>
+      </c>
+      <c r="E46">
+        <v>-1.1909474094800001</v>
+      </c>
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:101">
       <c r="B47">
         <v>0.2462</v>
       </c>
+      <c r="D47" s="2">
+        <v>0.67394405700000004</v>
+      </c>
+      <c r="E47">
+        <v>0.70727347171999999</v>
+      </c>
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:101">
       <c r="B48">
         <v>0.42309999999999998</v>
       </c>
+      <c r="D48" s="2">
+        <v>-0.39920822700000003</v>
+      </c>
+      <c r="E48">
+        <v>-0.88005766147999998</v>
+      </c>
       <c r="H48" s="3"/>
     </row>
     <row r="49" spans="2:8">
       <c r="B49">
         <v>0.3322</v>
       </c>
+      <c r="D49" s="2">
+        <v>0.22875350699999999</v>
+      </c>
+      <c r="E49">
+        <v>0.13413889152</v>
+      </c>
       <c r="H49" s="3"/>
     </row>
     <row r="50" spans="2:8">
       <c r="B50">
         <v>9.1700000000000004E-2</v>
       </c>
+      <c r="D50" s="2">
+        <v>0.30232815899999999</v>
+      </c>
+      <c r="E50">
+        <v>9.9859134000000044E-2</v>
+      </c>
       <c r="H50" s="3"/>
     </row>
     <row r="51" spans="2:8">
       <c r="B51">
         <v>0</v>
       </c>
+      <c r="D51" s="2">
+        <v>-1.0059589390000001</v>
+      </c>
+      <c r="E51">
+        <v>-1.3635377684400003</v>
+      </c>
       <c r="H51" s="3"/>
     </row>
     <row r="52" spans="2:8">
       <c r="B52">
         <v>0</v>
       </c>
+      <c r="D52" s="2">
+        <v>-1.7612213189999999</v>
+      </c>
+      <c r="E52">
+        <v>-1.4583791778800004</v>
+      </c>
       <c r="H52" s="3"/>
     </row>
     <row r="53" spans="2:8">
       <c r="B53">
         <v>0</v>
+      </c>
+      <c r="D53" s="2">
+        <v>-3.9294910000000002E-3</v>
+      </c>
+      <c r="E53">
+        <v>9.7582802320000023E-2</v>
       </c>
       <c r="H53" s="3"/>
     </row>
@@ -6938,23 +7054,47 @@
       <c r="B54">
         <v>0.15459999999999999</v>
       </c>
+      <c r="D54" s="2">
+        <v>-0.63287332600000001</v>
+      </c>
+      <c r="E54">
+        <v>-0.6126227287999999</v>
+      </c>
       <c r="H54" s="3"/>
     </row>
     <row r="55" spans="2:8">
       <c r="B55">
         <v>0.254</v>
       </c>
+      <c r="D55" s="2">
+        <v>0.579184586</v>
+      </c>
+      <c r="E55">
+        <v>0.42380406059999998</v>
+      </c>
       <c r="H55" s="3"/>
     </row>
     <row r="56" spans="2:8">
       <c r="B56">
         <v>0.33560000000000001</v>
       </c>
+      <c r="D56" s="2">
+        <v>0.43257069199999998</v>
+      </c>
+      <c r="E56">
+        <v>0.40749270884000005</v>
+      </c>
       <c r="H56" s="3"/>
     </row>
     <row r="57" spans="2:8">
       <c r="B57">
         <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.27858877100000001</v>
+      </c>
+      <c r="E57">
+        <v>0.22304525072000003</v>
       </c>
       <c r="H57" s="3"/>
     </row>
@@ -6962,53 +7102,107 @@
       <c r="B58">
         <v>0.2954</v>
       </c>
+      <c r="D58" s="2">
+        <v>0.64298500000000003</v>
+      </c>
+      <c r="E58">
+        <v>0.47497288036000007</v>
+      </c>
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="2:8">
       <c r="B59">
         <v>0.16600000000000001</v>
       </c>
+      <c r="D59" s="2">
+        <v>-0.80823451700000004</v>
+      </c>
+      <c r="E59">
+        <v>-1.2975406738800002</v>
+      </c>
       <c r="H59" s="3"/>
     </row>
     <row r="60" spans="2:8">
       <c r="B60">
         <v>0.13039999999999999</v>
       </c>
+      <c r="D60" s="2">
+        <v>0.21882165100000001</v>
+      </c>
+      <c r="E60">
+        <v>0.37514651768000001</v>
+      </c>
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="2:8">
       <c r="B61">
         <v>0.1115</v>
       </c>
+      <c r="D61" s="2">
+        <v>7.1985561000000003E-2</v>
+      </c>
+      <c r="E61">
+        <v>0.29025549904000003</v>
+      </c>
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="2:8">
       <c r="B62">
         <v>0.3266</v>
       </c>
+      <c r="D62" s="2">
+        <v>0.74844038400000001</v>
+      </c>
+      <c r="E62">
+        <v>0.83885228980000004</v>
+      </c>
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="2:8">
       <c r="B63">
         <v>0.39279999999999998</v>
       </c>
+      <c r="D63" s="2">
+        <v>0.62513462099999995</v>
+      </c>
+      <c r="E63">
+        <v>0.53543563064000022</v>
+      </c>
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="2:8">
       <c r="B64">
         <v>0.35630000000000001</v>
       </c>
+      <c r="D64" s="2">
+        <v>-0.47822646800000002</v>
+      </c>
+      <c r="E64">
+        <v>-0.31304274879999999</v>
+      </c>
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="2:8">
       <c r="B65">
         <v>9.0399999999999994E-2</v>
       </c>
+      <c r="D65" s="2">
+        <v>-1.4332978350000001</v>
+      </c>
+      <c r="E65">
+        <v>-1.4001703325600001</v>
+      </c>
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="2:8">
       <c r="B66">
         <v>0</v>
+      </c>
+      <c r="D66" s="2">
+        <v>-0.18911577199999999</v>
+      </c>
+      <c r="E66">
+        <v>0.16796584343999998</v>
       </c>
       <c r="H66" s="3"/>
     </row>
@@ -7016,41 +7210,83 @@
       <c r="B67">
         <v>0.3967</v>
       </c>
+      <c r="D67" s="2">
+        <v>-1.267714496</v>
+      </c>
+      <c r="E67">
+        <v>-1.5611029349999999</v>
+      </c>
       <c r="H67" s="3"/>
     </row>
     <row r="68" spans="2:8">
       <c r="B68">
         <v>0.38450000000000001</v>
       </c>
+      <c r="D68" s="2">
+        <v>-0.44435280599999999</v>
+      </c>
+      <c r="E68">
+        <v>-0.18529283223999996</v>
+      </c>
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="2:8">
       <c r="B69">
         <v>0.3196</v>
       </c>
+      <c r="D69" s="2">
+        <v>0.343861468</v>
+      </c>
+      <c r="E69">
+        <v>0.26821925264000002</v>
+      </c>
       <c r="H69" s="3"/>
     </row>
     <row r="70" spans="2:8">
       <c r="B70">
         <v>0.35520000000000002</v>
       </c>
+      <c r="D70" s="2">
+        <v>0.65753492499999999</v>
+      </c>
+      <c r="E70">
+        <v>0.64182808512000011</v>
+      </c>
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="2:8">
       <c r="B71">
         <v>0.3533</v>
       </c>
+      <c r="D71" s="2">
+        <v>0.144823805</v>
+      </c>
+      <c r="E71">
+        <v>0.32430004927999995</v>
+      </c>
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="2:8">
       <c r="B72">
         <v>0</v>
       </c>
+      <c r="D72" s="2">
+        <v>-1.336386318</v>
+      </c>
+      <c r="E72">
+        <v>-1.5291193112800001</v>
+      </c>
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="2:8">
       <c r="B73">
         <v>0</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.29935466300000002</v>
+      </c>
+      <c r="E73">
+        <v>0.14093300555999996</v>
       </c>
       <c r="H73" s="3"/>
     </row>
@@ -7058,83 +7294,167 @@
       <c r="B74">
         <v>0.46110000000000001</v>
       </c>
+      <c r="D74" s="2">
+        <v>0.72295878700000005</v>
+      </c>
+      <c r="E74">
+        <v>0.81917579360000015</v>
+      </c>
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="2:8">
       <c r="B75">
         <v>0.27079999999999999</v>
       </c>
+      <c r="D75" s="2">
+        <v>0.75110058199999996</v>
+      </c>
+      <c r="E75">
+        <v>0.68255582704000017</v>
+      </c>
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="2:8">
       <c r="B76">
         <v>0.21160000000000001</v>
       </c>
+      <c r="D76" s="2">
+        <v>0.26247630300000002</v>
+      </c>
+      <c r="E76">
+        <v>8.9582953120000031E-2</v>
+      </c>
       <c r="H76" s="3"/>
     </row>
     <row r="77" spans="2:8">
       <c r="B77">
         <v>0.37419999999999998</v>
       </c>
+      <c r="D77" s="2">
+        <v>0.87945764900000001</v>
+      </c>
+      <c r="E77">
+        <v>0.77765174548000005</v>
+      </c>
       <c r="H77" s="3"/>
     </row>
     <row r="78" spans="2:8">
       <c r="B78">
         <v>0</v>
       </c>
+      <c r="D78" s="2">
+        <v>-0.87726978099999997</v>
+      </c>
+      <c r="E78">
+        <v>-0.59194142955999995</v>
+      </c>
       <c r="H78" s="3"/>
     </row>
     <row r="79" spans="2:8">
       <c r="B79">
         <v>0</v>
       </c>
+      <c r="D79" s="2">
+        <v>-1.0288170889999999</v>
+      </c>
+      <c r="E79">
+        <v>-1.38197147404</v>
+      </c>
       <c r="H79" s="3"/>
     </row>
     <row r="80" spans="2:8">
       <c r="B80">
         <v>0</v>
       </c>
+      <c r="D80" s="2">
+        <v>-0.66264235000000005</v>
+      </c>
+      <c r="E80">
+        <v>-0.94713380819999993</v>
+      </c>
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="2:8">
       <c r="B81">
         <v>0</v>
       </c>
+      <c r="D81" s="2">
+        <v>-0.80128747099999997</v>
+      </c>
+      <c r="E81">
+        <v>-0.64496173619999997</v>
+      </c>
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="2:8">
       <c r="B82">
         <v>0</v>
       </c>
+      <c r="D82" s="2">
+        <v>-1.115596241</v>
+      </c>
+      <c r="E82">
+        <v>-1.0153972463199998</v>
+      </c>
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="2:8">
       <c r="B83">
         <v>0</v>
       </c>
+      <c r="D83" s="2">
+        <v>-0.279192838</v>
+      </c>
+      <c r="E83">
+        <v>0.12219277884000004</v>
+      </c>
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="2:8">
       <c r="B84">
         <v>0</v>
       </c>
+      <c r="D84" s="2">
+        <v>-0.38766817999999997</v>
+      </c>
+      <c r="E84">
+        <v>-0.79399636224000003</v>
+      </c>
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="2:8">
       <c r="B85">
         <v>0</v>
       </c>
+      <c r="D85" s="2">
+        <v>-0.879626613</v>
+      </c>
+      <c r="E85">
+        <v>-1.0326847904799998</v>
+      </c>
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="2:8">
       <c r="B86">
         <v>0</v>
       </c>
+      <c r="D86" s="2">
+        <v>-1.3187898300000001</v>
+      </c>
+      <c r="E86">
+        <v>-1.3802409591200004</v>
+      </c>
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="2:8">
       <c r="B87">
         <v>0</v>
+      </c>
+      <c r="D87" s="2">
+        <v>-1.018090951</v>
+      </c>
+      <c r="E87">
+        <v>-0.42330124279999992</v>
       </c>
       <c r="H87" s="3"/>
     </row>
@@ -7142,77 +7462,155 @@
       <c r="B88">
         <v>0.37019999999999997</v>
       </c>
+      <c r="D88" s="2">
+        <v>-0.85357217900000004</v>
+      </c>
+      <c r="E88">
+        <v>-0.73020942496000008</v>
+      </c>
       <c r="H88" s="3"/>
     </row>
     <row r="89" spans="2:8">
       <c r="B89">
         <v>0.3216</v>
       </c>
+      <c r="D89" s="2">
+        <v>-0.97640399899999997</v>
+      </c>
+      <c r="E89">
+        <v>-1.3241588225200003</v>
+      </c>
       <c r="H89" s="3"/>
     </row>
     <row r="90" spans="2:8">
       <c r="B90">
         <v>0.59030000000000005</v>
       </c>
+      <c r="D90" s="2">
+        <v>0.80763366199999997</v>
+      </c>
+      <c r="E90">
+        <v>0.81352444080000008</v>
+      </c>
       <c r="H90" s="3"/>
     </row>
     <row r="91" spans="2:8">
       <c r="B91">
         <v>0.43340000000000001</v>
       </c>
+      <c r="D91" s="2">
+        <v>0.75252612600000002</v>
+      </c>
+      <c r="E91">
+        <v>0.75257730168000025</v>
+      </c>
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="2:8">
       <c r="B92">
         <v>0.44319999999999998</v>
       </c>
+      <c r="D92" s="2">
+        <v>0.434423585</v>
+      </c>
+      <c r="E92">
+        <v>0.69740222123999995</v>
+      </c>
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="2:8">
       <c r="B93">
         <v>5.6500000000000002E-2</v>
       </c>
+      <c r="D93" s="2">
+        <v>-1.271870066</v>
+      </c>
+      <c r="E93">
+        <v>-1.3253939446400003</v>
+      </c>
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="2:8">
       <c r="B94">
         <v>0.33450000000000002</v>
       </c>
+      <c r="D94" s="2">
+        <v>0.80313129900000002</v>
+      </c>
+      <c r="E94">
+        <v>0.74511487952000022</v>
+      </c>
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="2:8">
       <c r="B95">
         <v>0.2278</v>
       </c>
+      <c r="D95" s="2">
+        <v>0.158384051</v>
+      </c>
+      <c r="E95">
+        <v>2.1743664319999995E-2</v>
+      </c>
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="2:8">
       <c r="B96">
         <v>0.52429999999999999</v>
       </c>
+      <c r="D96" s="2">
+        <v>0.486092672</v>
+      </c>
+      <c r="E96">
+        <v>0.48927295836000001</v>
+      </c>
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="2:8">
       <c r="B97">
         <v>0.49130000000000001</v>
       </c>
+      <c r="D97" s="2">
+        <v>0.56125960699999999</v>
+      </c>
+      <c r="E97">
+        <v>0.62102768136000008</v>
+      </c>
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="2:8">
       <c r="B98">
         <v>0.59289999999999998</v>
       </c>
+      <c r="D98" s="2">
+        <v>0.25744352100000001</v>
+      </c>
+      <c r="E98">
+        <v>0.33030354531999995</v>
+      </c>
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="2:8">
       <c r="B99">
         <v>0.36859999999999998</v>
       </c>
+      <c r="D99" s="2">
+        <v>0.52488509699999997</v>
+      </c>
+      <c r="E99">
+        <v>0.49302650704000006</v>
+      </c>
       <c r="H99" s="3"/>
     </row>
     <row r="100" spans="2:8">
       <c r="B100">
         <v>0</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0.278400545</v>
+      </c>
+      <c r="E100">
+        <v>0.24893036187999995</v>
       </c>
       <c r="H100" s="3"/>
     </row>
@@ -7220,11 +7618,23 @@
       <c r="B101">
         <v>0.43640000000000001</v>
       </c>
+      <c r="D101" s="2">
+        <v>0.145772074</v>
+      </c>
+      <c r="E101">
+        <v>-0.40780302732000001</v>
+      </c>
       <c r="H101" s="3"/>
     </row>
     <row r="102" spans="2:8">
       <c r="B102">
         <v>0</v>
+      </c>
+      <c r="D102" s="2">
+        <v>-1.070305635</v>
+      </c>
+      <c r="E102">
+        <v>-1.3675051904400002</v>
       </c>
       <c r="H102" s="3"/>
     </row>
@@ -7232,199 +7642,409 @@
       <c r="B103">
         <v>0.2908</v>
       </c>
+      <c r="D103" s="2">
+        <v>0.69807259600000005</v>
+      </c>
+      <c r="E103">
+        <v>0.72597233768000013</v>
+      </c>
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="2:8">
       <c r="B104">
         <v>0.41339999999999999</v>
       </c>
+      <c r="D104" s="2">
+        <v>-0.77546308200000003</v>
+      </c>
+      <c r="E104">
+        <v>-0.94084783708000019</v>
+      </c>
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="2:8">
       <c r="B105">
         <v>0.58079999999999998</v>
       </c>
+      <c r="D105" s="2">
+        <v>0.90056524100000002</v>
+      </c>
+      <c r="E105">
+        <v>0.82595814936000012</v>
+      </c>
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="2:8">
       <c r="B106">
         <v>0.55410000000000004</v>
       </c>
+      <c r="D106" s="2">
+        <v>0.81878830499999999</v>
+      </c>
+      <c r="E106">
+        <v>0.84940741888000004</v>
+      </c>
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="2:8">
       <c r="B107">
         <v>0.51100000000000001</v>
       </c>
+      <c r="D107" s="2">
+        <v>0.90056524100000002</v>
+      </c>
+      <c r="E107">
+        <v>0.88296110819999996</v>
+      </c>
       <c r="H107" s="3"/>
     </row>
     <row r="108" spans="2:8">
       <c r="B108">
         <v>0.67930000000000001</v>
       </c>
+      <c r="D108" s="2">
+        <v>0.85193146799999997</v>
+      </c>
+      <c r="E108">
+        <v>0.82331181784000007</v>
+      </c>
       <c r="H108" s="3"/>
     </row>
     <row r="109" spans="2:8">
       <c r="B109">
         <v>0.5968</v>
       </c>
+      <c r="D109" s="2">
+        <v>0.45252240900000001</v>
+      </c>
+      <c r="E109">
+        <v>0.63628768555999993</v>
+      </c>
       <c r="H109" s="3"/>
     </row>
     <row r="110" spans="2:8">
       <c r="B110">
         <v>0.4662</v>
       </c>
+      <c r="D110" s="2">
+        <v>0.72626611100000005</v>
+      </c>
+      <c r="E110">
+        <v>0.73829390719999988</v>
+      </c>
       <c r="H110" s="3"/>
     </row>
     <row r="111" spans="2:8">
       <c r="B111">
         <v>0.58330000000000004</v>
       </c>
+      <c r="D111" s="2">
+        <v>0.251333802</v>
+      </c>
+      <c r="E111">
+        <v>0.20936196316000008</v>
+      </c>
       <c r="H111" s="3"/>
     </row>
     <row r="112" spans="2:8">
       <c r="B112">
         <v>0.62209999999999999</v>
       </c>
+      <c r="D112" s="2">
+        <v>0.65197911200000003</v>
+      </c>
+      <c r="E112">
+        <v>0.72469583928000003</v>
+      </c>
       <c r="H112" s="3"/>
     </row>
     <row r="113" spans="2:8">
       <c r="B113">
         <v>0.58860000000000001</v>
       </c>
+      <c r="D113" s="2">
+        <v>0.20795007500000001</v>
+      </c>
+      <c r="E113">
+        <v>1.8884686719999974E-2</v>
+      </c>
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="2:8">
       <c r="B114">
         <v>0.62739999999999996</v>
       </c>
+      <c r="D114" s="2">
+        <v>-0.311375658</v>
+      </c>
+      <c r="E114">
+        <v>-0.13627979515999999</v>
+      </c>
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="2:8">
       <c r="B115">
         <v>0.66590000000000005</v>
       </c>
+      <c r="D115" s="2">
+        <v>0.93154243400000003</v>
+      </c>
+      <c r="E115">
+        <v>0.8641550775600001</v>
+      </c>
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="2:8">
       <c r="B116">
         <v>0.71619999999999995</v>
       </c>
+      <c r="D116" s="2">
+        <v>0.74689614500000001</v>
+      </c>
+      <c r="E116">
+        <v>0.49071934251999999</v>
+      </c>
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="2:8">
       <c r="B117">
         <v>0.503</v>
       </c>
+      <c r="D117" s="2">
+        <v>0.65147105800000005</v>
+      </c>
+      <c r="E117">
+        <v>0.82369901464000028</v>
+      </c>
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="2:8">
       <c r="B118">
         <v>0.28179999999999999</v>
       </c>
+      <c r="D118" s="2">
+        <v>0.31285898099999998</v>
+      </c>
+      <c r="E118">
+        <v>0.26918502684000001</v>
+      </c>
       <c r="H118" s="3"/>
     </row>
     <row r="119" spans="2:8">
       <c r="B119">
         <v>0.69240000000000002</v>
       </c>
+      <c r="D119" s="2">
+        <v>0.53078889500000004</v>
+      </c>
+      <c r="E119">
+        <v>0.56947548300000017</v>
+      </c>
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="2:8">
       <c r="B120">
         <v>0.2949</v>
       </c>
+      <c r="D120" s="2">
+        <v>-1.577624589</v>
+      </c>
+      <c r="E120">
+        <v>-1.6942673000000001</v>
+      </c>
       <c r="H120" s="3"/>
     </row>
     <row r="121" spans="2:8">
       <c r="B121">
         <v>0.76249999999999996</v>
       </c>
+      <c r="D121" s="2">
+        <v>0.36558026500000002</v>
+      </c>
+      <c r="E121">
+        <v>0.50849285272</v>
+      </c>
       <c r="H121" s="3"/>
     </row>
     <row r="122" spans="2:8">
       <c r="B122">
         <v>0.255</v>
       </c>
+      <c r="D122" s="2">
+        <v>-0.707682747</v>
+      </c>
+      <c r="E122">
+        <v>-0.75748791699999996</v>
+      </c>
       <c r="H122" s="3"/>
     </row>
     <row r="123" spans="2:8">
       <c r="B123">
         <v>0.65029999999999999</v>
       </c>
+      <c r="D123" s="2">
+        <v>0.57418883300000001</v>
+      </c>
+      <c r="E123">
+        <v>0.77685097211999998</v>
+      </c>
       <c r="H123" s="3"/>
     </row>
     <row r="124" spans="2:8">
       <c r="B124">
         <v>0.47560000000000002</v>
       </c>
+      <c r="D124" s="2">
+        <v>0.78023719999999996</v>
+      </c>
+      <c r="E124">
+        <v>0.79236509344000017</v>
+      </c>
       <c r="H124" s="3"/>
     </row>
     <row r="125" spans="2:8">
       <c r="B125">
         <v>0.73309999999999997</v>
       </c>
+      <c r="D125" s="2">
+        <v>0.63591677099999999</v>
+      </c>
+      <c r="E125">
+        <v>0.76581165084000002</v>
+      </c>
       <c r="H125" s="3"/>
     </row>
     <row r="126" spans="2:8">
       <c r="B126">
         <v>0.66600000000000004</v>
       </c>
+      <c r="D126" s="2">
+        <v>0.82095427499999996</v>
+      </c>
+      <c r="E126">
+        <v>0.82817963576000009</v>
+      </c>
       <c r="H126" s="3"/>
     </row>
     <row r="127" spans="2:8">
       <c r="B127">
         <v>0.66239999999999999</v>
       </c>
+      <c r="D127" s="2">
+        <v>0.47306588500000002</v>
+      </c>
+      <c r="E127">
+        <v>0.85943237716000009</v>
+      </c>
     </row>
     <row r="128" spans="2:8">
       <c r="B128">
         <v>0.55769999999999997</v>
       </c>
+      <c r="D128" s="2">
+        <v>0.79630899700000002</v>
+      </c>
+      <c r="E128">
+        <v>0.79356798324</v>
+      </c>
     </row>
-    <row r="129" spans="2:2">
+    <row r="129" spans="2:5">
       <c r="B129">
         <v>0.35299999999999998</v>
       </c>
+      <c r="D129" s="2">
+        <v>0.50861530499999996</v>
+      </c>
+      <c r="E129">
+        <v>0.64345765755999995</v>
+      </c>
     </row>
-    <row r="130" spans="2:2">
+    <row r="130" spans="2:5">
       <c r="B130">
         <v>0.51180000000000003</v>
       </c>
+      <c r="D130" s="2">
+        <v>0.61140367299999998</v>
+      </c>
+      <c r="E130">
+        <v>0.67090946647999994</v>
+      </c>
     </row>
-    <row r="131" spans="2:2">
+    <row r="131" spans="2:5">
       <c r="B131">
         <v>0.74119999999999997</v>
       </c>
+      <c r="D131" s="2">
+        <v>0.93154243400000003</v>
+      </c>
+      <c r="E131">
+        <v>0.80936369184000012</v>
+      </c>
     </row>
-    <row r="132" spans="2:2">
+    <row r="132" spans="2:5">
       <c r="B132">
         <v>0.65110000000000001</v>
       </c>
+      <c r="D132" s="2">
+        <v>0.84515255700000003</v>
+      </c>
+      <c r="E132">
+        <v>0.76426052556000001</v>
+      </c>
     </row>
-    <row r="133" spans="2:2">
+    <row r="133" spans="2:5">
       <c r="B133">
         <v>0.57330000000000003</v>
       </c>
+      <c r="D133" s="2">
+        <v>0.735034191</v>
+      </c>
+      <c r="E133">
+        <v>0.78334522992000022</v>
+      </c>
     </row>
-    <row r="134" spans="2:2">
+    <row r="134" spans="2:5">
       <c r="B134">
         <v>0</v>
       </c>
+      <c r="D134" s="2">
+        <v>-0.67072387899999997</v>
+      </c>
+      <c r="E134">
+        <v>-0.60994534387999988</v>
+      </c>
     </row>
-    <row r="135" spans="2:2">
+    <row r="135" spans="2:5">
       <c r="B135">
         <v>0.30990000000000001</v>
       </c>
+      <c r="D135" s="2">
+        <v>-0.55814073399999997</v>
+      </c>
+      <c r="E135">
+        <v>-0.71771765900000006</v>
+      </c>
     </row>
-    <row r="136" spans="2:2">
+    <row r="136" spans="2:5">
       <c r="B136">
         <v>0.56859999999999999</v>
       </c>
+      <c r="D136" s="2">
+        <v>0.91663163199999997</v>
+      </c>
+      <c r="E136">
+        <v>0.91233458871999984</v>
+      </c>
     </row>
-    <row r="137" spans="2:2">
+    <row r="137" spans="2:5">
       <c r="B137">
         <v>0.28210000000000002</v>
+      </c>
+      <c r="D137" s="2">
+        <v>0.73365358400000003</v>
+      </c>
+      <c r="E137">
+        <v>0.62668026479999994</v>
       </c>
     </row>
   </sheetData>
